--- a/output/동부대로_S_여름_배출량/동부대로_S_여름_배출량_PM25_재비산.xlsx
+++ b/output/동부대로_S_여름_배출량/동부대로_S_여름_배출량_PM25_재비산.xlsx
@@ -1,37 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>01_car_PM25_재비산</t>
+  </si>
+  <si>
+    <t>02_taxi_PM25_재비산</t>
+  </si>
+  <si>
+    <t>03_van_PM25_재비산</t>
+  </si>
+  <si>
+    <t>04_bus_PM25_재비산</t>
+  </si>
+  <si>
+    <t>05_LightTruck_PM25_재비산</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_PM25_재비산</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_PM25_재비산</t>
+  </si>
+  <si>
+    <t>Total_PM25_재비산 (g/h)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +81,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,1266 +397,1363 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Total_PM25_재비산 (g/h)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
         <v>2024081209</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>6.879097128546417</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>0.3752398869155092</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>2.252774845472106</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
+        <v>1.661409624019695</v>
+      </c>
+      <c r="F2">
         <v>1.820783311752305</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2">
         <v>6.733104821998213</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2">
         <v>0.4465824148456156</v>
       </c>
-      <c r="H2" t="n">
-        <v>18.50758240953017</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="I2">
+        <v>20.16899203354986</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
         <v>2024081210</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>4.966979670118215</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>0.2814299151866319</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>2.047977132247369</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
+        <v>0.5191905075061549</v>
+      </c>
+      <c r="F3">
         <v>2.190629921951992</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3">
         <v>5.59190061487987</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3">
         <v>0.3907596129899135</v>
       </c>
-      <c r="H3" t="n">
-        <v>15.46967686737399</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="I3">
+        <v>15.98886737488015</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
         <v>2024081211</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>5.883438333625223</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>0.1876199434577546</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>2.559971415309212</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
+        <v>0.934542913511079</v>
+      </c>
+      <c r="F4">
         <v>2.076830964967473</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4">
         <v>5.477780194168037</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4">
         <v>0.05582280185570195</v>
       </c>
-      <c r="H4" t="n">
-        <v>16.2414636533834</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="I4">
+        <v>17.17600656689448</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
         <v>2024081212</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>7.39955513498249</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>0.2501599246103395</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>2.355173702084475</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
+        <v>0.934542913511079</v>
+      </c>
+      <c r="F5">
         <v>1.991481747229084</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5">
         <v>5.135418932032534</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5">
         <v>0.05582280185570195</v>
       </c>
-      <c r="H5" t="n">
-        <v>17.18761224279462</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="I5">
+        <v>18.12215515630571</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
         <v>2024081213</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>7.54664109332312</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>0.437779868068094</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>2.457572558696843</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
+        <v>1.03838101501231</v>
+      </c>
+      <c r="F6">
         <v>2.617376010643939</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6">
         <v>5.706021035591704</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6">
         <v>0.2232912074228078</v>
       </c>
-      <c r="H6" t="n">
-        <v>18.98868177374651</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="I6">
+        <v>20.02706278875882</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
         <v>2024081214</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>6.743325474693526</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>0.2501599246103395</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>3.071965698371054</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
+        <v>1.142219116513541</v>
+      </c>
+      <c r="F7">
         <v>2.873423663859107</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7">
         <v>5.135418932032534</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7">
         <v>0.8931648296912311</v>
       </c>
-      <c r="H7" t="n">
-        <v>18.96745852325779</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="I7">
+        <v>20.10967763977133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
         <v>2024081215</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>7.433498048445712</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>0.2814299151866319</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>3.993555407882371</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
+        <v>1.246057218014772</v>
+      </c>
+      <c r="F8">
         <v>1.991481747229084</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8">
         <v>4.222455566337862</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8">
         <v>0.4465824148456156</v>
       </c>
-      <c r="H8" t="n">
-        <v>18.36900309992728</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="I8">
+        <v>19.61506031794205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
         <v>2024081216</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>8.157613535661124</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>0.1876199434577546</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>3.686358838045265</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
+        <v>2.180600131525851</v>
+      </c>
+      <c r="F9">
         <v>2.332878618182641</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9">
         <v>3.309492200643189</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9">
         <v>0.2791140092785097</v>
       </c>
-      <c r="H9" t="n">
-        <v>17.95307714526848</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="I9">
+        <v>20.13367727679433</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
         <v>2024081217</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>11.61979070890981</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>0.2814299151866319</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>3.071965698371054</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
+        <v>1.869085827022158</v>
+      </c>
+      <c r="F10">
         <v>1.963032007982954</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10">
         <v>2.624769676372185</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10">
         <v>0.2232912074228078</v>
       </c>
-      <c r="H10" t="n">
-        <v>19.78427921424544</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="I10">
+        <v>21.6533650412676</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
         <v>2024081218</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>11.58584779544659</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>0.2501599246103395</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>2.559971415309212</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
+        <v>2.803628740533236</v>
+      </c>
+      <c r="F11">
         <v>1.137989569845191</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11">
         <v>2.738890097084019</v>
       </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="n">
-        <v>18.27285880229535</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="I11">
+        <v>21.07648754282859</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
         <v>2024081219</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>9.006186372241688</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>0.4690498586443865</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>1.843179419022632</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
+        <v>2.388276334528312</v>
+      </c>
+      <c r="F12">
         <v>1.337137744568099</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12">
         <v>2.624769676372185</v>
       </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="n">
-        <v>15.28032307084899</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="I12">
+        <v>17.6685994053773</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
         <v>2024081220</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>7.21852626317864</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>0.3439698963392167</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>2.252774845472106</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
+        <v>1.661409624019695</v>
+      </c>
+      <c r="F13">
         <v>0.7965926988916336</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13">
         <v>4.678937249185199</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13">
         <v>0.05582280185570195</v>
       </c>
-      <c r="H13" t="n">
-        <v>15.3466237549225</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="I13">
+        <v>17.00803337894219</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
         <v>2024081221</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>5.396923240652368</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>0.2501599246103395</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>1.228786279348422</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
+        <v>0.934542913511079</v>
+      </c>
+      <c r="F14">
         <v>0.5974445241687252</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14">
         <v>4.793057669897035</v>
       </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="n">
-        <v>12.26637163867689</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="I14">
+        <v>13.20091455218797</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
         <v>2024081222</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>3.552691609150615</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>0.3439698963392167</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>1.228786279348422</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
+        <v>0.934542913511079</v>
+      </c>
+      <c r="F15">
         <v>0.7112434811532443</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15">
         <v>2.967130938507688</v>
       </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="n">
-        <v>8.803822204499184</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="I15">
+        <v>9.738365118010265</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
         <v>2024081223</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>1.776345804575308</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>0.2814299151866319</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>0.7167919962865793</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
+        <v>0.7268667105086168</v>
+      </c>
+      <c r="F16">
         <v>0.3129471317074274</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16">
         <v>2.282408414236682</v>
       </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="n">
-        <v>5.369923261992628</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="I16">
+        <v>6.096789972501244</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
         <v>2024081300</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>1.289830711602453</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>0.2501599246103395</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>0.1023988566123685</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
+        <v>0.5191905075061549</v>
+      </c>
+      <c r="F17">
         <v>0.3413968709535573</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17">
         <v>1.483565469253844</v>
       </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="n">
-        <v>3.467351833032561</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
+      <c r="I17">
+        <v>3.986542340538716</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
         <v>2024081301</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>0.7580584006786345</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>0.437779868068094</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>0.4095954264494739</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
+        <v>0.3115143045036929</v>
+      </c>
+      <c r="F18">
         <v>0.2844973924612977</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18">
         <v>1.483565469253844</v>
       </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="n">
-        <v>3.373496556911344</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
+      <c r="I18">
+        <v>3.685010861415037</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
         <v>2024081302</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>0.5996581378502626</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>0.1876199434577546</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>0.1023988566123685</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19">
         <v>0.2844973924612977</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19">
         <v>1.597685889965677</v>
       </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="n">
+      <c r="I19">
         <v>2.77186022034736</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="20" spans="1:9">
+      <c r="A20">
         <v>2024081303</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>0.5317723109238183</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>0.0938099717288773</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>0.4095954264494739</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
+        <v>0.103838101501231</v>
+      </c>
+      <c r="F20">
         <v>0.4836455671842062</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20">
         <v>2.168287993524848</v>
       </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="n">
-        <v>3.687111269811223</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+      <c r="I20">
+        <v>3.790949371312454</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
         <v>2024081304</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>1.097487535310859</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>0.0938099717288773</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>0.6143931396742108</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
+        <v>0.3115143045036929</v>
+      </c>
+      <c r="F21">
         <v>0.4551958279380763</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21">
         <v>4.907178090608866</v>
       </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="n">
-        <v>7.16806456526089</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+      <c r="I21">
+        <v>7.479578869764582</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
         <v>2024081305</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>2.885147644373907</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>0.0938099717288773</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>2.047977132247369</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
+        <v>0.934542913511079</v>
+      </c>
+      <c r="F22">
         <v>0.7396932203993741</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22">
         <v>9.243754077658563</v>
       </c>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="n">
-        <v>15.01038204640809</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="I22">
+        <v>15.94492495991917</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
         <v>2024081306</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>6.630182429816114</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>0.1876199434577546</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>1.740780562410264</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
+        <v>3.530495451041853</v>
+      </c>
+      <c r="F23">
         <v>1.991481747229084</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23">
         <v>8.444911132675724</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23">
         <v>0.2232912074228078</v>
       </c>
-      <c r="H23" t="n">
-        <v>19.21826702301175</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="I23">
+        <v>22.7487624740536</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
         <v>2024081307</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>8.576242801707535</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>0.218889934034047</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>1.740780562410264</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
+        <v>2.180600131525851</v>
+      </c>
+      <c r="F24">
         <v>1.792333572506176</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24">
         <v>6.847225242710046</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24">
         <v>0.2232912074228078</v>
       </c>
-      <c r="H24" t="n">
-        <v>19.39876332079087</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="I24">
+        <v>21.57936345231672</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
         <v>2024081308</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>10.08104529857706</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>0.1563499528814621</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>2.969566841758686</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
+        <v>1.972923928523388</v>
+      </c>
+      <c r="F25">
         <v>1.507836180044878</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25">
         <v>5.477780194168037</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25">
         <v>0.3349368111342116</v>
       </c>
-      <c r="H25" t="n">
-        <v>20.52751527856434</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="I25">
+        <v>22.50043920708772</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
         <v>2024081309</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>8.214185058099828</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>0.500319849220679</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>2.66237027192158</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
+        <v>1.972923928523388</v>
+      </c>
+      <c r="F26">
         <v>2.275979139690381</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26">
         <v>8.216670291252056</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26">
         <v>0.3907596129899135</v>
       </c>
-      <c r="H26" t="n">
-        <v>22.26028422317444</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+      <c r="I26">
+        <v>24.23320815169783</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
         <v>2024081310</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>5.940009856063925</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>0.3752398869155092</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>2.457572558696843</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
+        <v>0.7268667105086168</v>
+      </c>
+      <c r="F27">
         <v>2.759624706874587</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27">
         <v>6.847225242710046</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27">
         <v>0.3349368111342116</v>
       </c>
-      <c r="H27" t="n">
-        <v>18.71460906239513</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="I27">
+        <v>19.44147577290374</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
         <v>2024081311</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>6.41521064454904</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>0.218889934034047</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>2.764769128533949</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
+        <v>1.03838101501231</v>
+      </c>
+      <c r="F28">
         <v>2.275979139690381</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28">
         <v>5.934261877015375</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28">
         <v>0.05582280185570195</v>
       </c>
-      <c r="H28" t="n">
-        <v>17.6649335256785</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
+      <c r="I28">
+        <v>18.7033145406908</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
         <v>2024081312</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>7.082754609325744</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>0.3439698963392167</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>2.047977132247369</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
+        <v>0.934542913511079</v>
+      </c>
+      <c r="F29">
         <v>2.332878618182641</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29">
         <v>4.108335145626028</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29">
         <v>0.2232912074228078</v>
       </c>
-      <c r="H29" t="n">
-        <v>16.13920660914381</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+      <c r="I29">
+        <v>17.07374952265489</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
         <v>2024081313</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>7.784241487565682</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>0.3752398869155092</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>2.559971415309212</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
+        <v>0.934542913511079</v>
+      </c>
+      <c r="F30">
         <v>1.849233050998435</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30">
         <v>4.793057669897035</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30">
         <v>0.05582280185570195</v>
       </c>
-      <c r="H30" t="n">
-        <v>17.41756631254157</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
+      <c r="I30">
+        <v>18.35210922605265</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31">
         <v>2024081314</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>7.28641209010508</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>0.2814299151866319</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>2.559971415309212</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
+        <v>0.8307048120098477</v>
+      </c>
+      <c r="F31">
         <v>2.788074446120718</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31">
         <v>4.564816828473363</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31">
         <v>0.2791140092785097</v>
       </c>
-      <c r="H31" t="n">
-        <v>17.75981870447351</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+      <c r="I31">
+        <v>18.59052351648336</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
         <v>2024081315</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>8.248127971563049</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>0.4065098774918017</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>1.945578275635001</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
+        <v>0.8307048120098477</v>
+      </c>
+      <c r="F32">
         <v>1.963032007982954</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32">
         <v>4.793057669897035</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32">
         <v>0.1674684055671058</v>
       </c>
-      <c r="H32" t="n">
-        <v>17.52377420813695</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
+      <c r="I32">
+        <v>18.35447902014679</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
         <v>2024081316</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>8.94961484980298</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>0.2501599246103395</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>3.583959981432896</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
+        <v>1.972923928523388</v>
+      </c>
+      <c r="F33">
         <v>2.389778096674901</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33">
         <v>2.853010517795852</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33">
         <v>0.2791140092785097</v>
       </c>
-      <c r="H33" t="n">
-        <v>18.30563737959548</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
+      <c r="I33">
+        <v>20.27856130811887</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
         <v>2024081317</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>10.70333204540281</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>0.3439698963392167</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>3.276763411595791</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
+        <v>2.284438233027082</v>
+      </c>
+      <c r="F34">
         <v>1.621635137029397</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34">
         <v>1.825926731389346</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34">
         <v>0.05582280185570195</v>
       </c>
-      <c r="H34" t="n">
-        <v>17.82745002361226</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
+      <c r="I34">
+        <v>20.11188825663934</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
         <v>2024081318</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>11.26904726978985</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>0.218889934034047</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>2.355173702084475</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
+        <v>2.803628740533236</v>
+      </c>
+      <c r="F35">
         <v>0.8534921773838929</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35">
         <v>2.510649255660349</v>
       </c>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="n">
-        <v>17.20725233895261</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
+      <c r="I35">
+        <v>20.01088107948585</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
         <v>2024081319</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>10.52230317359895</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>0.1563499528814621</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>2.457572558696843</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
+        <v>2.07676203002462</v>
+      </c>
+      <c r="F36">
         <v>1.19488904833745</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36">
         <v>3.765973883490525</v>
       </c>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="n">
-        <v>18.09708861700523</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
+      <c r="I36">
+        <v>20.17385064702985</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37">
         <v>2024081320</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>6.517039384938707</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>0.3439698963392167</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>2.252774845472106</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
+        <v>2.492114436029544</v>
+      </c>
+      <c r="F37">
         <v>0.5689947849225954</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37">
         <v>3.880094304202359</v>
       </c>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="n">
-        <v>13.56287321587498</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
+      <c r="I37">
+        <v>16.05498765190453</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38">
         <v>2024081321</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>5.589266416943963</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>0.2814299151866319</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>1.843179419022632</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
+        <v>1.03838101501231</v>
+      </c>
+      <c r="F38">
         <v>0.7681429596455039</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38">
         <v>3.765973883490525</v>
       </c>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="n">
-        <v>12.24799259428926</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
+      <c r="I38">
+        <v>13.28637360930157</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
         <v>2024081322</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>3.880806439295098</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>0.437779868068094</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>1.126387422736053</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
+        <v>1.349895319516003</v>
+      </c>
+      <c r="F39">
         <v>0.4551958279380763</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39">
         <v>3.08125135921952</v>
       </c>
-      <c r="G39" t="n">
+      <c r="H39">
         <v>0.05582280185570195</v>
       </c>
-      <c r="H39" t="n">
-        <v>9.037243719112546</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
+      <c r="I39">
+        <v>10.38713903862855</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40">
         <v>2024081323</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>2.421261160376534</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>0.2814299151866319</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>0.4095954264494739</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
+        <v>0.7268667105086168</v>
+      </c>
+      <c r="F40">
         <v>0.4267460886919465</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40">
         <v>1.483565469253844</v>
       </c>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="n">
-        <v>5.02259805995843</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
+      <c r="I40">
+        <v>5.749464770467046</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41">
         <v>2024081400</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>1.301145016090193</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>0.437779868068094</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>0.4095954264494739</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
+        <v>0.5191905075061549</v>
+      </c>
+      <c r="F41">
         <v>0.4551958279380763</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41">
         <v>1.711806310677511</v>
       </c>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="n">
-        <v>4.315522449223348</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
+      <c r="I41">
+        <v>4.834712956729503</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42">
         <v>2024081401</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>0.7580584006786345</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>0.2501599246103395</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>0.3071965698371054</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
+        <v>0.4153524060049238</v>
+      </c>
+      <c r="F42">
         <v>0.4267460886919465</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42">
         <v>1.141204207118341</v>
       </c>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="n">
-        <v>2.883365190936367</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
+      <c r="I42">
+        <v>3.298717596941291</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43">
         <v>2024081402</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>0.5770295288747818</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>0.1876199434577546</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>0.2047977132247369</v>
       </c>
-      <c r="E43" t="n">
+      <c r="F43">
         <v>0.2844973924612977</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43">
         <v>2.054167572813014</v>
       </c>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="n">
+      <c r="I43">
         <v>3.308112150831585</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="n">
+    <row r="44" spans="1:9">
+      <c r="A44">
         <v>2024081403</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>0.4412578750218916</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>0.0938099717288773</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>0.2047977132247369</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
+        <v>0.103838101501231</v>
+      </c>
+      <c r="F44">
         <v>0.4551958279380763</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44">
         <v>2.624769676372185</v>
       </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="n">
-        <v>3.819831064285767</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
+      <c r="I44">
+        <v>3.923669165786998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45">
         <v>2024081404</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>1.335087929553416</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>0.1563499528814621</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>0.8191908528989478</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
+        <v>0.5191905075061549</v>
+      </c>
+      <c r="F45">
         <v>0.5405450456764656</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45">
         <v>4.336575987049695</v>
       </c>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="n">
-        <v>7.187749768059986</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
+      <c r="I45">
+        <v>7.706940275566142</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46">
         <v>2024081405</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>2.364689637937831</v>
       </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>2.047977132247369</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
+        <v>1.246057218014772</v>
+      </c>
+      <c r="F46">
         <v>0.9388413951222825</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46">
         <v>9.471994919082229</v>
       </c>
-      <c r="G46" t="n">
+      <c r="H46">
         <v>0.1674684055671058</v>
       </c>
-      <c r="H46" t="n">
-        <v>14.99097148995682</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
+      <c r="I46">
+        <v>16.23702870797159</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47">
         <v>2024081406</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>6.980925868936079</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>0.2501599246103395</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>2.355173702084475</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
+        <v>3.530495451041853</v>
+      </c>
+      <c r="F47">
         <v>2.019931486475214</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47">
         <v>9.700235760505899</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47">
         <v>0.1116456037114039</v>
       </c>
-      <c r="H47" t="n">
-        <v>21.41807234632341</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
+      <c r="I47">
+        <v>24.94856779736526</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48">
         <v>2024081407</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>8.338642407464976</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>0.4690498586443865</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>1.535982849185527</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
+        <v>2.284438233027082</v>
+      </c>
+      <c r="F48">
         <v>1.849233050998435</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48">
         <v>7.18958650484555</v>
       </c>
-      <c r="G48" t="n">
+      <c r="H48">
         <v>0.2791140092785097</v>
       </c>
-      <c r="H48" t="n">
-        <v>19.66160868041738</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
+      <c r="I48">
+        <v>21.94604691344447</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49">
         <v>2024081408</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>10.60150330501314</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>0.1250799623051697</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>2.867167985146317</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
+        <v>2.07676203002462</v>
+      </c>
+      <c r="F49">
         <v>1.678534615521656</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49">
         <v>6.504863980574545</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49">
         <v>0.05582280185570195</v>
       </c>
-      <c r="H49" t="n">
-        <v>21.83297265041653</v>
+      <c r="I49">
+        <v>23.90973468044115</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/동부대로_S_여름_배출량/동부대로_S_여름_배출량_PM25_재비산.xlsx
+++ b/output/동부대로_S_여름_배출량/동부대로_S_여름_배출량_PM25_재비산.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>6.879097128546417</v>
+        <v>13.22269567822394</v>
       </c>
       <c r="C2">
-        <v>0.3752398869155092</v>
+        <v>0.7212694832328053</v>
       </c>
       <c r="D2">
-        <v>2.252774845472106</v>
+        <v>4.330183984410456</v>
       </c>
       <c r="E2">
-        <v>1.661409624019695</v>
+        <v>3.193487959942049</v>
       </c>
       <c r="F2">
-        <v>1.820783311752305</v>
+        <v>3.499829000434072</v>
       </c>
       <c r="G2">
-        <v>6.733104821998213</v>
+        <v>12.94207573569716</v>
       </c>
       <c r="H2">
-        <v>0.4465824148456156</v>
+        <v>0.8584009291343869</v>
       </c>
       <c r="I2">
-        <v>20.16899203354986</v>
+        <v>38.76794277107487</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>4.966979670118215</v>
+        <v>9.547308228191303</v>
       </c>
       <c r="C3">
-        <v>0.2814299151866319</v>
+        <v>0.5409521124246038</v>
       </c>
       <c r="D3">
-        <v>2.047977132247369</v>
+        <v>3.936530894918598</v>
       </c>
       <c r="E3">
-        <v>0.5191905075061549</v>
+        <v>0.9979649874818907</v>
       </c>
       <c r="F3">
-        <v>2.190629921951992</v>
+        <v>4.210731766147243</v>
       </c>
       <c r="G3">
-        <v>5.59190061487987</v>
+        <v>10.74850357710442</v>
       </c>
       <c r="H3">
-        <v>0.3907596129899135</v>
+        <v>0.7511008129925884</v>
       </c>
       <c r="I3">
-        <v>15.98886737488015</v>
+        <v>30.73309237926065</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>5.883438333625223</v>
+        <v>11.3088844616389</v>
       </c>
       <c r="C4">
-        <v>0.1876199434577546</v>
+        <v>0.3606347416164026</v>
       </c>
       <c r="D4">
-        <v>2.559971415309212</v>
+        <v>4.920663618648246</v>
       </c>
       <c r="E4">
-        <v>0.934542913511079</v>
+        <v>1.796336977467403</v>
       </c>
       <c r="F4">
-        <v>2.076830964967473</v>
+        <v>3.991992453620113</v>
       </c>
       <c r="G4">
-        <v>5.477780194168037</v>
+        <v>10.52914636124515</v>
       </c>
       <c r="H4">
-        <v>0.05582280185570195</v>
+        <v>0.1073001161417984</v>
       </c>
       <c r="I4">
-        <v>17.17600656689448</v>
+        <v>33.01495873037802</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>7.39955513498249</v>
+        <v>14.2230969959843</v>
       </c>
       <c r="C5">
-        <v>0.2501599246103395</v>
+        <v>0.4808463221552035</v>
       </c>
       <c r="D5">
-        <v>2.355173702084475</v>
+        <v>4.527010529156385</v>
       </c>
       <c r="E5">
-        <v>0.934542913511079</v>
+        <v>1.796336977467403</v>
       </c>
       <c r="F5">
-        <v>1.991481747229084</v>
+        <v>3.827937969224766</v>
       </c>
       <c r="G5">
-        <v>5.135418932032534</v>
+        <v>9.871074713667328</v>
       </c>
       <c r="H5">
-        <v>0.05582280185570195</v>
+        <v>0.1073001161417984</v>
       </c>
       <c r="I5">
-        <v>18.12215515630571</v>
+        <v>34.8336036237972</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>7.54664109332312</v>
+        <v>14.50581910752528</v>
       </c>
       <c r="C6">
-        <v>0.437779868068094</v>
+        <v>0.8414810637716059</v>
       </c>
       <c r="D6">
-        <v>2.457572558696843</v>
+        <v>4.723837073902315</v>
       </c>
       <c r="E6">
-        <v>1.03838101501231</v>
+        <v>1.995929974963781</v>
       </c>
       <c r="F6">
-        <v>2.617376010643939</v>
+        <v>5.031004188123978</v>
       </c>
       <c r="G6">
-        <v>5.706021035591704</v>
+        <v>10.9678607929637</v>
       </c>
       <c r="H6">
-        <v>0.2232912074228078</v>
+        <v>0.4292004645671935</v>
       </c>
       <c r="I6">
-        <v>20.02706278875882</v>
+        <v>38.49513266581786</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>6.743325474693526</v>
+        <v>12.96172142141689</v>
       </c>
       <c r="C7">
-        <v>0.2501599246103395</v>
+        <v>0.4808463221552035</v>
       </c>
       <c r="D7">
-        <v>3.071965698371054</v>
+        <v>5.904796342377894</v>
       </c>
       <c r="E7">
-        <v>1.142219116513541</v>
+        <v>2.19552297246016</v>
       </c>
       <c r="F7">
-        <v>2.873423663859107</v>
+        <v>5.523167641310019</v>
       </c>
       <c r="G7">
-        <v>5.135418932032534</v>
+        <v>9.871074713667328</v>
       </c>
       <c r="H7">
-        <v>0.8931648296912311</v>
+        <v>1.716801858268774</v>
       </c>
       <c r="I7">
-        <v>20.10967763977133</v>
+        <v>38.65393127165626</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>7.433498048445712</v>
+        <v>14.28834056018607</v>
       </c>
       <c r="C8">
-        <v>0.2814299151866319</v>
+        <v>0.5409521124246038</v>
       </c>
       <c r="D8">
-        <v>3.993555407882371</v>
+        <v>7.676235245091265</v>
       </c>
       <c r="E8">
-        <v>1.246057218014772</v>
+        <v>2.395115969956537</v>
       </c>
       <c r="F8">
-        <v>1.991481747229084</v>
+        <v>3.827937969224766</v>
       </c>
       <c r="G8">
-        <v>4.222455566337862</v>
+        <v>8.116216986793138</v>
       </c>
       <c r="H8">
-        <v>0.4465824148456156</v>
+        <v>0.8584009291343869</v>
       </c>
       <c r="I8">
-        <v>19.61506031794205</v>
+        <v>37.70319977281077</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>8.157613535661124</v>
+        <v>15.68020326315701</v>
       </c>
       <c r="C9">
-        <v>0.1876199434577546</v>
+        <v>0.3606347416164026</v>
       </c>
       <c r="D9">
-        <v>3.686358838045265</v>
+        <v>7.085755610853475</v>
       </c>
       <c r="E9">
-        <v>2.180600131525851</v>
+        <v>4.191452947423941</v>
       </c>
       <c r="F9">
-        <v>2.332878618182641</v>
+        <v>4.484155906806154</v>
       </c>
       <c r="G9">
-        <v>3.309492200643189</v>
+        <v>6.361359259918943</v>
       </c>
       <c r="H9">
-        <v>0.2791140092785097</v>
+        <v>0.5365005807089916</v>
       </c>
       <c r="I9">
-        <v>20.13367727679433</v>
+        <v>38.70006231048492</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>11.61979070890981</v>
+        <v>22.33504681173682</v>
       </c>
       <c r="C10">
-        <v>0.2814299151866319</v>
+        <v>0.5409521124246038</v>
       </c>
       <c r="D10">
-        <v>3.071965698371054</v>
+        <v>5.904796342377894</v>
       </c>
       <c r="E10">
-        <v>1.869085827022158</v>
+        <v>3.592673954934807</v>
       </c>
       <c r="F10">
-        <v>1.963032007982954</v>
+        <v>3.773253141092985</v>
       </c>
       <c r="G10">
-        <v>2.624769676372185</v>
+        <v>5.045215964763301</v>
       </c>
       <c r="H10">
-        <v>0.2232912074228078</v>
+        <v>0.4292004645671935</v>
       </c>
       <c r="I10">
-        <v>21.6533650412676</v>
+        <v>41.62113879189761</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,25 +699,25 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>11.58584779544659</v>
+        <v>22.26980324753506</v>
       </c>
       <c r="C11">
-        <v>0.2501599246103395</v>
+        <v>0.4808463221552035</v>
       </c>
       <c r="D11">
-        <v>2.559971415309212</v>
+        <v>4.920663618648246</v>
       </c>
       <c r="E11">
-        <v>2.803628740533236</v>
+        <v>5.38901093240221</v>
       </c>
       <c r="F11">
-        <v>1.137989569845191</v>
+        <v>2.187393125271295</v>
       </c>
       <c r="G11">
-        <v>2.738890097084019</v>
+        <v>5.264573180622574</v>
       </c>
       <c r="I11">
-        <v>21.07648754282859</v>
+        <v>40.51229042663459</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -725,25 +725,25 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>9.006186372241688</v>
+        <v>17.31129236820109</v>
       </c>
       <c r="C12">
-        <v>0.4690498586443865</v>
+        <v>0.9015868540410066</v>
       </c>
       <c r="D12">
-        <v>1.843179419022632</v>
+        <v>3.542877805426738</v>
       </c>
       <c r="E12">
-        <v>2.388276334528312</v>
+        <v>4.590638942416698</v>
       </c>
       <c r="F12">
-        <v>1.337137744568099</v>
+        <v>2.570186922193772</v>
       </c>
       <c r="G12">
-        <v>2.624769676372185</v>
+        <v>5.045215964763301</v>
       </c>
       <c r="I12">
-        <v>17.6685994053773</v>
+        <v>33.9617988570426</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -751,28 +751,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>7.21852626317864</v>
+        <v>13.87513132024157</v>
       </c>
       <c r="C13">
-        <v>0.3439698963392167</v>
+        <v>0.6611636929634048</v>
       </c>
       <c r="D13">
-        <v>2.252774845472106</v>
+        <v>4.330183984410456</v>
       </c>
       <c r="E13">
-        <v>1.661409624019695</v>
+        <v>3.193487959942049</v>
       </c>
       <c r="F13">
-        <v>0.7965926988916336</v>
+        <v>1.531175187689907</v>
       </c>
       <c r="G13">
-        <v>4.678937249185199</v>
+        <v>8.99364585023023</v>
       </c>
       <c r="H13">
-        <v>0.05582280185570195</v>
+        <v>0.1073001161417984</v>
       </c>
       <c r="I13">
-        <v>17.00803337894219</v>
+        <v>32.69208811161943</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -780,25 +780,25 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>5.396923240652368</v>
+        <v>10.3737267080803</v>
       </c>
       <c r="C14">
-        <v>0.2501599246103395</v>
+        <v>0.4808463221552035</v>
       </c>
       <c r="D14">
-        <v>1.228786279348422</v>
+        <v>2.361918536951157</v>
       </c>
       <c r="E14">
-        <v>0.934542913511079</v>
+        <v>1.796336977467403</v>
       </c>
       <c r="F14">
-        <v>0.5974445241687252</v>
+        <v>1.14838139076743</v>
       </c>
       <c r="G14">
-        <v>4.793057669897035</v>
+        <v>9.213003066089508</v>
       </c>
       <c r="I14">
-        <v>13.20091455218797</v>
+        <v>25.374213001511</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -806,25 +806,25 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>3.552691609150615</v>
+        <v>6.82882638645118</v>
       </c>
       <c r="C15">
-        <v>0.3439698963392167</v>
+        <v>0.6611636929634048</v>
       </c>
       <c r="D15">
-        <v>1.228786279348422</v>
+        <v>2.361918536951157</v>
       </c>
       <c r="E15">
-        <v>0.934542913511079</v>
+        <v>1.796336977467403</v>
       </c>
       <c r="F15">
-        <v>0.7112434811532443</v>
+        <v>1.36712070329456</v>
       </c>
       <c r="G15">
-        <v>2.967130938507688</v>
+        <v>5.703287612341122</v>
       </c>
       <c r="I15">
-        <v>9.738365118010265</v>
+        <v>18.71865390946883</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -832,25 +832,25 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>1.776345804575308</v>
+        <v>3.41441319322559</v>
       </c>
       <c r="C16">
-        <v>0.2814299151866319</v>
+        <v>0.5409521124246038</v>
       </c>
       <c r="D16">
-        <v>0.7167919962865793</v>
+        <v>1.377785813221509</v>
       </c>
       <c r="E16">
-        <v>0.7268667105086168</v>
+        <v>1.397150982474647</v>
       </c>
       <c r="F16">
-        <v>0.3129471317074274</v>
+        <v>0.6015331094496061</v>
       </c>
       <c r="G16">
-        <v>2.282408414236682</v>
+        <v>4.38714431718548</v>
       </c>
       <c r="I16">
-        <v>6.096789972501244</v>
+        <v>11.71897952798144</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -858,25 +858,25 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>1.289830711602453</v>
+        <v>2.479255439666989</v>
       </c>
       <c r="C17">
-        <v>0.2501599246103395</v>
+        <v>0.4808463221552035</v>
       </c>
       <c r="D17">
-        <v>0.1023988566123685</v>
+        <v>0.1968265447459298</v>
       </c>
       <c r="E17">
-        <v>0.5191905075061549</v>
+        <v>0.9979649874818907</v>
       </c>
       <c r="F17">
-        <v>0.3413968709535573</v>
+        <v>0.6562179375813884</v>
       </c>
       <c r="G17">
-        <v>1.483565469253844</v>
+        <v>2.851643806170561</v>
       </c>
       <c r="I17">
-        <v>3.986542340538716</v>
+        <v>7.662755037801963</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -884,25 +884,25 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>0.7580584006786345</v>
+        <v>1.457106267172705</v>
       </c>
       <c r="C18">
-        <v>0.437779868068094</v>
+        <v>0.8414810637716059</v>
       </c>
       <c r="D18">
-        <v>0.4095954264494739</v>
+        <v>0.7873061789837194</v>
       </c>
       <c r="E18">
-        <v>0.3115143045036929</v>
+        <v>0.5987789924891342</v>
       </c>
       <c r="F18">
-        <v>0.2844973924612977</v>
+        <v>0.5468482813178237</v>
       </c>
       <c r="G18">
-        <v>1.483565469253844</v>
+        <v>2.851643806170561</v>
       </c>
       <c r="I18">
-        <v>3.685010861415037</v>
+        <v>7.083164589905548</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -910,22 +910,22 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>0.5996581378502626</v>
+        <v>1.152636300897811</v>
       </c>
       <c r="C19">
-        <v>0.1876199434577546</v>
+        <v>0.3606347416164026</v>
       </c>
       <c r="D19">
-        <v>0.1023988566123685</v>
+        <v>0.1968265447459298</v>
       </c>
       <c r="F19">
-        <v>0.2844973924612977</v>
+        <v>0.5468482813178237</v>
       </c>
       <c r="G19">
-        <v>1.597685889965677</v>
+        <v>3.071001022029836</v>
       </c>
       <c r="I19">
-        <v>2.77186022034736</v>
+        <v>5.327946890607803</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -933,25 +933,25 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>0.5317723109238183</v>
+        <v>1.022149172494285</v>
       </c>
       <c r="C20">
-        <v>0.0938099717288773</v>
+        <v>0.1803173708082013</v>
       </c>
       <c r="D20">
-        <v>0.4095954264494739</v>
+        <v>0.7873061789837194</v>
       </c>
       <c r="E20">
-        <v>0.103838101501231</v>
+        <v>0.199592997496378</v>
       </c>
       <c r="F20">
-        <v>0.4836455671842062</v>
+        <v>0.9296420782403003</v>
       </c>
       <c r="G20">
-        <v>2.168287993524848</v>
+        <v>4.167787101326207</v>
       </c>
       <c r="I20">
-        <v>3.790949371312454</v>
+        <v>7.286794899349091</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -959,25 +959,25 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>1.097487535310859</v>
+        <v>2.109541909190332</v>
       </c>
       <c r="C21">
-        <v>0.0938099717288773</v>
+        <v>0.1803173708082013</v>
       </c>
       <c r="D21">
-        <v>0.6143931396742108</v>
+        <v>1.180959268475579</v>
       </c>
       <c r="E21">
-        <v>0.3115143045036929</v>
+        <v>0.5987789924891342</v>
       </c>
       <c r="F21">
-        <v>0.4551958279380763</v>
+        <v>0.8749572501085179</v>
       </c>
       <c r="G21">
-        <v>4.907178090608866</v>
+        <v>9.432360281948778</v>
       </c>
       <c r="I21">
-        <v>7.479578869764582</v>
+        <v>14.37691507302054</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -985,25 +985,25 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>2.885147644373907</v>
+        <v>5.545702957149842</v>
       </c>
       <c r="C22">
-        <v>0.0938099717288773</v>
+        <v>0.1803173708082013</v>
       </c>
       <c r="D22">
-        <v>2.047977132247369</v>
+        <v>3.936530894918598</v>
       </c>
       <c r="E22">
-        <v>0.934542913511079</v>
+        <v>1.796336977467403</v>
       </c>
       <c r="F22">
-        <v>0.7396932203993741</v>
+        <v>1.421805531426342</v>
       </c>
       <c r="G22">
-        <v>9.243754077658563</v>
+        <v>17.7679344846012</v>
       </c>
       <c r="I22">
-        <v>15.94492495991917</v>
+        <v>30.64862821637158</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1011,28 +1011,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>6.630182429816114</v>
+        <v>12.74424287407768</v>
       </c>
       <c r="C23">
-        <v>0.1876199434577546</v>
+        <v>0.3606347416164026</v>
       </c>
       <c r="D23">
-        <v>1.740780562410264</v>
+        <v>3.346051260680807</v>
       </c>
       <c r="E23">
-        <v>3.530495451041853</v>
+        <v>6.786161914876858</v>
       </c>
       <c r="F23">
-        <v>1.991481747229084</v>
+        <v>3.827937969224766</v>
       </c>
       <c r="G23">
-        <v>8.444911132675724</v>
+        <v>16.23243397358628</v>
       </c>
       <c r="H23">
-        <v>0.2232912074228078</v>
+        <v>0.4292004645671935</v>
       </c>
       <c r="I23">
-        <v>22.7487624740536</v>
+        <v>43.72666319862999</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1040,28 +1040,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>8.576242801707535</v>
+        <v>16.4848738883121</v>
       </c>
       <c r="C24">
-        <v>0.218889934034047</v>
+        <v>0.420740531885803</v>
       </c>
       <c r="D24">
-        <v>1.740780562410264</v>
+        <v>3.346051260680807</v>
       </c>
       <c r="E24">
-        <v>2.180600131525851</v>
+        <v>4.191452947423941</v>
       </c>
       <c r="F24">
-        <v>1.792333572506176</v>
+        <v>3.44514417230229</v>
       </c>
       <c r="G24">
-        <v>6.847225242710046</v>
+        <v>13.16143295155644</v>
       </c>
       <c r="H24">
-        <v>0.2232912074228078</v>
+        <v>0.4292004645671935</v>
       </c>
       <c r="I24">
-        <v>21.57936345231672</v>
+        <v>41.47889621672856</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1069,28 +1069,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>10.08104529857706</v>
+        <v>19.37733856792357</v>
       </c>
       <c r="C25">
-        <v>0.1563499528814621</v>
+        <v>0.3005289513470022</v>
       </c>
       <c r="D25">
-        <v>2.969566841758686</v>
+        <v>5.707969797631965</v>
       </c>
       <c r="E25">
-        <v>1.972923928523388</v>
+        <v>3.792266952431184</v>
       </c>
       <c r="F25">
-        <v>1.507836180044878</v>
+        <v>2.898295890984466</v>
       </c>
       <c r="G25">
-        <v>5.477780194168037</v>
+        <v>10.52914636124515</v>
       </c>
       <c r="H25">
-        <v>0.3349368111342116</v>
+        <v>0.6438006968507899</v>
       </c>
       <c r="I25">
-        <v>22.50043920708772</v>
+        <v>43.24934721841412</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1098,28 +1098,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>8.214185058099828</v>
+        <v>15.78894253682661</v>
       </c>
       <c r="C26">
-        <v>0.500319849220679</v>
+        <v>0.9616926443104069</v>
       </c>
       <c r="D26">
-        <v>2.66237027192158</v>
+        <v>5.117490163394175</v>
       </c>
       <c r="E26">
-        <v>1.972923928523388</v>
+        <v>3.792266952431184</v>
       </c>
       <c r="F26">
-        <v>2.275979139690381</v>
+        <v>4.37478625054259</v>
       </c>
       <c r="G26">
-        <v>8.216670291252056</v>
+        <v>15.79371954186773</v>
       </c>
       <c r="H26">
-        <v>0.3907596129899135</v>
+        <v>0.7511008129925884</v>
       </c>
       <c r="I26">
-        <v>24.23320815169783</v>
+        <v>46.57999890236528</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1127,28 +1127,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>5.940009856063925</v>
+        <v>11.4176237353085</v>
       </c>
       <c r="C27">
-        <v>0.3752398869155092</v>
+        <v>0.7212694832328053</v>
       </c>
       <c r="D27">
-        <v>2.457572558696843</v>
+        <v>4.723837073902315</v>
       </c>
       <c r="E27">
-        <v>0.7268667105086168</v>
+        <v>1.397150982474647</v>
       </c>
       <c r="F27">
-        <v>2.759624706874587</v>
+        <v>5.30442832878289</v>
       </c>
       <c r="G27">
-        <v>6.847225242710046</v>
+        <v>13.16143295155644</v>
       </c>
       <c r="H27">
-        <v>0.3349368111342116</v>
+        <v>0.6438006968507899</v>
       </c>
       <c r="I27">
-        <v>19.44147577290374</v>
+        <v>37.36954325210839</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1156,28 +1156,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>6.41521064454904</v>
+        <v>12.33103363413318</v>
       </c>
       <c r="C28">
-        <v>0.218889934034047</v>
+        <v>0.420740531885803</v>
       </c>
       <c r="D28">
-        <v>2.764769128533949</v>
+        <v>5.314316708140104</v>
       </c>
       <c r="E28">
-        <v>1.03838101501231</v>
+        <v>1.995929974963781</v>
       </c>
       <c r="F28">
-        <v>2.275979139690381</v>
+        <v>4.37478625054259</v>
       </c>
       <c r="G28">
-        <v>5.934261877015375</v>
+        <v>11.40657522468224</v>
       </c>
       <c r="H28">
-        <v>0.05582280185570195</v>
+        <v>0.1073001161417984</v>
       </c>
       <c r="I28">
-        <v>18.7033145406908</v>
+        <v>35.95068244048951</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1185,28 +1185,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>7.082754609325744</v>
+        <v>13.61415706343452</v>
       </c>
       <c r="C29">
-        <v>0.3439698963392167</v>
+        <v>0.6611636929634048</v>
       </c>
       <c r="D29">
-        <v>2.047977132247369</v>
+        <v>3.936530894918598</v>
       </c>
       <c r="E29">
-        <v>0.934542913511079</v>
+        <v>1.796336977467403</v>
       </c>
       <c r="F29">
-        <v>2.332878618182641</v>
+        <v>4.484155906806154</v>
       </c>
       <c r="G29">
-        <v>4.108335145626028</v>
+        <v>7.896859770933863</v>
       </c>
       <c r="H29">
-        <v>0.2232912074228078</v>
+        <v>0.4292004645671935</v>
       </c>
       <c r="I29">
-        <v>17.07374952265489</v>
+        <v>32.81840477109115</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1214,28 +1214,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>7.784241487565682</v>
+        <v>14.96252405693763</v>
       </c>
       <c r="C30">
-        <v>0.3752398869155092</v>
+        <v>0.7212694832328053</v>
       </c>
       <c r="D30">
-        <v>2.559971415309212</v>
+        <v>4.920663618648246</v>
       </c>
       <c r="E30">
-        <v>0.934542913511079</v>
+        <v>1.796336977467403</v>
       </c>
       <c r="F30">
-        <v>1.849233050998435</v>
+        <v>3.554513828565854</v>
       </c>
       <c r="G30">
-        <v>4.793057669897035</v>
+        <v>9.213003066089508</v>
       </c>
       <c r="H30">
-        <v>0.05582280185570195</v>
+        <v>0.1073001161417984</v>
       </c>
       <c r="I30">
-        <v>18.35210922605265</v>
+        <v>35.27561114708324</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1243,28 +1243,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>7.28641209010508</v>
+        <v>14.0056184486451</v>
       </c>
       <c r="C31">
-        <v>0.2814299151866319</v>
+        <v>0.5409521124246038</v>
       </c>
       <c r="D31">
-        <v>2.559971415309212</v>
+        <v>4.920663618648246</v>
       </c>
       <c r="E31">
-        <v>0.8307048120098477</v>
+        <v>1.596743979971024</v>
       </c>
       <c r="F31">
-        <v>2.788074446120718</v>
+        <v>5.359113156914672</v>
       </c>
       <c r="G31">
-        <v>4.564816828473363</v>
+        <v>8.77428863437096</v>
       </c>
       <c r="H31">
-        <v>0.2791140092785097</v>
+        <v>0.5365005807089916</v>
       </c>
       <c r="I31">
-        <v>18.59052351648336</v>
+        <v>35.7338805316836</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1272,28 +1272,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>8.248127971563049</v>
+        <v>15.85418610102838</v>
       </c>
       <c r="C32">
-        <v>0.4065098774918017</v>
+        <v>0.7813752735022055</v>
       </c>
       <c r="D32">
-        <v>1.945578275635001</v>
+        <v>3.739704350172667</v>
       </c>
       <c r="E32">
-        <v>0.8307048120098477</v>
+        <v>1.596743979971024</v>
       </c>
       <c r="F32">
-        <v>1.963032007982954</v>
+        <v>3.773253141092985</v>
       </c>
       <c r="G32">
-        <v>4.793057669897035</v>
+        <v>9.213003066089508</v>
       </c>
       <c r="H32">
-        <v>0.1674684055671058</v>
+        <v>0.3219003484253949</v>
       </c>
       <c r="I32">
-        <v>18.35447902014679</v>
+        <v>35.28016626028217</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1301,28 +1301,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>8.94961484980298</v>
+        <v>17.20255309453149</v>
       </c>
       <c r="C33">
-        <v>0.2501599246103395</v>
+        <v>0.4808463221552035</v>
       </c>
       <c r="D33">
-        <v>3.583959981432896</v>
+        <v>6.888929066107544</v>
       </c>
       <c r="E33">
-        <v>1.972923928523388</v>
+        <v>3.792266952431184</v>
       </c>
       <c r="F33">
-        <v>2.389778096674901</v>
+        <v>4.593525563069718</v>
       </c>
       <c r="G33">
-        <v>2.853010517795852</v>
+        <v>5.483930396481848</v>
       </c>
       <c r="H33">
-        <v>0.2791140092785097</v>
+        <v>0.5365005807089916</v>
       </c>
       <c r="I33">
-        <v>20.27856130811887</v>
+        <v>38.97855197548597</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1330,28 +1330,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>10.70333204540281</v>
+        <v>20.57347057828922</v>
       </c>
       <c r="C34">
-        <v>0.3439698963392167</v>
+        <v>0.6611636929634048</v>
       </c>
       <c r="D34">
-        <v>3.276763411595791</v>
+        <v>6.298449431869755</v>
       </c>
       <c r="E34">
-        <v>2.284438233027082</v>
+        <v>4.391045944920321</v>
       </c>
       <c r="F34">
-        <v>1.621635137029397</v>
+        <v>3.117035203511596</v>
       </c>
       <c r="G34">
-        <v>1.825926731389346</v>
+        <v>3.509715453748383</v>
       </c>
       <c r="H34">
-        <v>0.05582280185570195</v>
+        <v>0.1073001161417984</v>
       </c>
       <c r="I34">
-        <v>20.11188825663934</v>
+        <v>38.65818042144449</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1359,25 +1359,25 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>11.26904726978985</v>
+        <v>21.66086331498528</v>
       </c>
       <c r="C35">
-        <v>0.218889934034047</v>
+        <v>0.420740531885803</v>
       </c>
       <c r="D35">
-        <v>2.355173702084475</v>
+        <v>4.527010529156385</v>
       </c>
       <c r="E35">
-        <v>2.803628740533236</v>
+        <v>5.38901093240221</v>
       </c>
       <c r="F35">
-        <v>0.8534921773838929</v>
+        <v>1.640544843953471</v>
       </c>
       <c r="G35">
-        <v>2.510649255660349</v>
+        <v>4.825858748904028</v>
       </c>
       <c r="I35">
-        <v>20.01088107948585</v>
+        <v>38.46402890128717</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1385,25 +1385,25 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>10.52230317359895</v>
+        <v>20.2255049025465</v>
       </c>
       <c r="C36">
-        <v>0.1563499528814621</v>
+        <v>0.3005289513470022</v>
       </c>
       <c r="D36">
-        <v>2.457572558696843</v>
+        <v>4.723837073902315</v>
       </c>
       <c r="E36">
-        <v>2.07676203002462</v>
+        <v>3.991859949927563</v>
       </c>
       <c r="F36">
-        <v>1.19488904833745</v>
+        <v>2.296762781534859</v>
       </c>
       <c r="G36">
-        <v>3.765973883490525</v>
+        <v>7.238788123356039</v>
       </c>
       <c r="I36">
-        <v>20.17385064702985</v>
+        <v>38.77728178261428</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1411,25 +1411,25 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>6.517039384938707</v>
+        <v>12.52676432673847</v>
       </c>
       <c r="C37">
-        <v>0.3439698963392167</v>
+        <v>0.6611636929634048</v>
       </c>
       <c r="D37">
-        <v>2.252774845472106</v>
+        <v>4.330183984410456</v>
       </c>
       <c r="E37">
-        <v>2.492114436029544</v>
+        <v>4.790231939913074</v>
       </c>
       <c r="F37">
-        <v>0.5689947849225954</v>
+        <v>1.093696562635647</v>
       </c>
       <c r="G37">
-        <v>3.880094304202359</v>
+        <v>7.458145339215315</v>
       </c>
       <c r="I37">
-        <v>16.05498765190453</v>
+        <v>30.86018584587637</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1437,25 +1437,25 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>5.589266416943963</v>
+        <v>10.74344023855695</v>
       </c>
       <c r="C38">
-        <v>0.2814299151866319</v>
+        <v>0.5409521124246038</v>
       </c>
       <c r="D38">
-        <v>1.843179419022632</v>
+        <v>3.542877805426738</v>
       </c>
       <c r="E38">
-        <v>1.03838101501231</v>
+        <v>1.995929974963781</v>
       </c>
       <c r="F38">
-        <v>0.7681429596455039</v>
+        <v>1.476490359558124</v>
       </c>
       <c r="G38">
-        <v>3.765973883490525</v>
+        <v>7.238788123356039</v>
       </c>
       <c r="I38">
-        <v>13.28637360930157</v>
+        <v>25.53847861428623</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1463,28 +1463,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>3.880806439295098</v>
+        <v>7.459514173734887</v>
       </c>
       <c r="C39">
-        <v>0.437779868068094</v>
+        <v>0.8414810637716059</v>
       </c>
       <c r="D39">
-        <v>1.126387422736053</v>
+        <v>2.165091992205228</v>
       </c>
       <c r="E39">
-        <v>1.349895319516003</v>
+        <v>2.594708967452916</v>
       </c>
       <c r="F39">
-        <v>0.4551958279380763</v>
+        <v>0.8749572501085179</v>
       </c>
       <c r="G39">
-        <v>3.08125135921952</v>
+        <v>5.922644828200397</v>
       </c>
       <c r="H39">
-        <v>0.05582280185570195</v>
+        <v>0.1073001161417984</v>
       </c>
       <c r="I39">
-        <v>10.38713903862855</v>
+        <v>19.96569839161535</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1492,25 +1492,25 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>2.421261160376534</v>
+        <v>4.654040913059086</v>
       </c>
       <c r="C40">
-        <v>0.2814299151866319</v>
+        <v>0.5409521124246038</v>
       </c>
       <c r="D40">
-        <v>0.4095954264494739</v>
+        <v>0.7873061789837194</v>
       </c>
       <c r="E40">
-        <v>0.7268667105086168</v>
+        <v>1.397150982474647</v>
       </c>
       <c r="F40">
-        <v>0.4267460886919465</v>
+        <v>0.8202724219767357</v>
       </c>
       <c r="G40">
-        <v>1.483565469253844</v>
+        <v>2.851643806170561</v>
       </c>
       <c r="I40">
-        <v>5.749464770467046</v>
+        <v>11.05136641508935</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1518,25 +1518,25 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>1.301145016090193</v>
+        <v>2.501003294400911</v>
       </c>
       <c r="C41">
-        <v>0.437779868068094</v>
+        <v>0.8414810637716059</v>
       </c>
       <c r="D41">
-        <v>0.4095954264494739</v>
+        <v>0.7873061789837194</v>
       </c>
       <c r="E41">
-        <v>0.5191905075061549</v>
+        <v>0.9979649874818907</v>
       </c>
       <c r="F41">
-        <v>0.4551958279380763</v>
+        <v>0.8749572501085179</v>
       </c>
       <c r="G41">
-        <v>1.711806310677511</v>
+        <v>3.290358237889109</v>
       </c>
       <c r="I41">
-        <v>4.834712956729503</v>
+        <v>9.293071012635753</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1544,25 +1544,25 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>0.7580584006786345</v>
+        <v>1.457106267172705</v>
       </c>
       <c r="C42">
-        <v>0.2501599246103395</v>
+        <v>0.4808463221552035</v>
       </c>
       <c r="D42">
-        <v>0.3071965698371054</v>
+        <v>0.5904796342377894</v>
       </c>
       <c r="E42">
-        <v>0.4153524060049238</v>
+        <v>0.7983719899855122</v>
       </c>
       <c r="F42">
-        <v>0.4267460886919465</v>
+        <v>0.8202724219767357</v>
       </c>
       <c r="G42">
-        <v>1.141204207118341</v>
+        <v>2.19357215859274</v>
       </c>
       <c r="I42">
-        <v>3.298717596941291</v>
+        <v>6.340648794120685</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1570,22 +1570,22 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>0.5770295288747818</v>
+        <v>1.109140591429969</v>
       </c>
       <c r="C43">
-        <v>0.1876199434577546</v>
+        <v>0.3606347416164026</v>
       </c>
       <c r="D43">
-        <v>0.2047977132247369</v>
+        <v>0.3936530894918597</v>
       </c>
       <c r="F43">
-        <v>0.2844973924612977</v>
+        <v>0.5468482813178237</v>
       </c>
       <c r="G43">
-        <v>2.054167572813014</v>
+        <v>3.948429885466931</v>
       </c>
       <c r="I43">
-        <v>3.308112150831585</v>
+        <v>6.358706589322987</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1593,25 +1593,25 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>0.4412578750218916</v>
+        <v>0.848166334622917</v>
       </c>
       <c r="C44">
-        <v>0.0938099717288773</v>
+        <v>0.1803173708082013</v>
       </c>
       <c r="D44">
-        <v>0.2047977132247369</v>
+        <v>0.3936530894918597</v>
       </c>
       <c r="E44">
-        <v>0.103838101501231</v>
+        <v>0.199592997496378</v>
       </c>
       <c r="F44">
-        <v>0.4551958279380763</v>
+        <v>0.8749572501085179</v>
       </c>
       <c r="G44">
-        <v>2.624769676372185</v>
+        <v>5.045215964763301</v>
       </c>
       <c r="I44">
-        <v>3.923669165786998</v>
+        <v>7.541903007291175</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1619,25 +1619,25 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>1.335087929553416</v>
+        <v>2.566246858602673</v>
       </c>
       <c r="C45">
-        <v>0.1563499528814621</v>
+        <v>0.3005289513470022</v>
       </c>
       <c r="D45">
-        <v>0.8191908528989478</v>
+        <v>1.574612357967439</v>
       </c>
       <c r="E45">
-        <v>0.5191905075061549</v>
+        <v>0.9979649874818907</v>
       </c>
       <c r="F45">
-        <v>0.5405450456764656</v>
+        <v>1.039011734503865</v>
       </c>
       <c r="G45">
-        <v>4.336575987049695</v>
+        <v>8.335574202652413</v>
       </c>
       <c r="I45">
-        <v>7.706940275566142</v>
+        <v>14.81393909255528</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1645,25 +1645,25 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>2.364689637937831</v>
+        <v>4.545301639389481</v>
       </c>
       <c r="D46">
-        <v>2.047977132247369</v>
+        <v>3.936530894918598</v>
       </c>
       <c r="E46">
-        <v>1.246057218014772</v>
+        <v>2.395115969956537</v>
       </c>
       <c r="F46">
-        <v>0.9388413951222825</v>
+        <v>1.804599328348818</v>
       </c>
       <c r="G46">
-        <v>9.471994919082229</v>
+        <v>18.20664891631974</v>
       </c>
       <c r="H46">
-        <v>0.1674684055671058</v>
+        <v>0.3219003484253949</v>
       </c>
       <c r="I46">
-        <v>16.23702870797159</v>
+        <v>31.21009709735857</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1671,28 +1671,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>6.980925868936079</v>
+        <v>13.41842637082923</v>
       </c>
       <c r="C47">
-        <v>0.2501599246103395</v>
+        <v>0.4808463221552035</v>
       </c>
       <c r="D47">
-        <v>2.355173702084475</v>
+        <v>4.527010529156385</v>
       </c>
       <c r="E47">
-        <v>3.530495451041853</v>
+        <v>6.786161914876858</v>
       </c>
       <c r="F47">
-        <v>2.019931486475214</v>
+        <v>3.882622797356548</v>
       </c>
       <c r="G47">
-        <v>9.700235760505899</v>
+        <v>18.64536334803828</v>
       </c>
       <c r="H47">
-        <v>0.1116456037114039</v>
+        <v>0.2146002322835967</v>
       </c>
       <c r="I47">
-        <v>24.94856779736526</v>
+        <v>47.95503151469611</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1700,28 +1700,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>8.338642407464976</v>
+        <v>16.02816893889974</v>
       </c>
       <c r="C48">
-        <v>0.4690498586443865</v>
+        <v>0.9015868540410066</v>
       </c>
       <c r="D48">
-        <v>1.535982849185527</v>
+        <v>2.952398171188947</v>
       </c>
       <c r="E48">
-        <v>2.284438233027082</v>
+        <v>4.391045944920321</v>
       </c>
       <c r="F48">
-        <v>1.849233050998435</v>
+        <v>3.554513828565854</v>
       </c>
       <c r="G48">
-        <v>7.18958650484555</v>
+        <v>13.81950459913426</v>
       </c>
       <c r="H48">
-        <v>0.2791140092785097</v>
+        <v>0.5365005807089916</v>
       </c>
       <c r="I48">
-        <v>21.94604691344447</v>
+        <v>42.18371891745912</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1729,28 +1729,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>10.60150330501314</v>
+        <v>20.37773988568394</v>
       </c>
       <c r="C49">
-        <v>0.1250799623051697</v>
+        <v>0.2404231610776017</v>
       </c>
       <c r="D49">
-        <v>2.867167985146317</v>
+        <v>5.511143252886036</v>
       </c>
       <c r="E49">
-        <v>2.07676203002462</v>
+        <v>3.991859949927563</v>
       </c>
       <c r="F49">
-        <v>1.678534615521656</v>
+        <v>3.22640485977516</v>
       </c>
       <c r="G49">
-        <v>6.504863980574545</v>
+        <v>12.50336130397861</v>
       </c>
       <c r="H49">
-        <v>0.05582280185570195</v>
+        <v>0.1073001161417984</v>
       </c>
       <c r="I49">
-        <v>23.90973468044115</v>
+        <v>45.95823252947072</v>
       </c>
     </row>
   </sheetData>

--- a/output/동부대로_S_여름_배출량/동부대로_S_여름_배출량_PM25_재비산.xlsx
+++ b/output/동부대로_S_여름_배출량/동부대로_S_여름_배출량_PM25_재비산.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>5.313793590314296</v>
+        <v>3.097653317764612</v>
       </c>
       <c r="C2">
-        <v>0.2898559605515012</v>
+        <v>0.1689702963835108</v>
       </c>
       <c r="D2">
-        <v>1.740167395604202</v>
+        <v>1.014423163949116</v>
       </c>
       <c r="E2">
-        <v>1.283364320350543</v>
+        <v>0.7481317588400066</v>
       </c>
       <c r="F2">
-        <v>1.406473336623038</v>
+        <v>0.8198976349926549</v>
       </c>
       <c r="G2">
-        <v>5.201021090046522</v>
+        <v>3.031913069546501</v>
       </c>
       <c r="H2">
-        <v>0.3449648593717629</v>
+        <v>0.201095793990361</v>
       </c>
       <c r="I2">
-        <v>15.57964055286187</v>
+        <v>9.082085035466761</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>3.836768727217065</v>
+        <v>2.23662797121491</v>
       </c>
       <c r="C3">
-        <v>0.2173919704136258</v>
+        <v>0.126727722287633</v>
       </c>
       <c r="D3">
-        <v>1.581970359640183</v>
+        <v>0.9222028763173782</v>
       </c>
       <c r="E3">
-        <v>0.4010513501095447</v>
+        <v>0.2337911746375021</v>
       </c>
       <c r="F3">
-        <v>1.692163233124593</v>
+        <v>0.9864393421005379</v>
       </c>
       <c r="G3">
-        <v>4.319492091733554</v>
+        <v>2.518029498436925</v>
       </c>
       <c r="H3">
-        <v>0.3018442519502926</v>
+        <v>0.1759588197415659</v>
       </c>
       <c r="I3">
-        <v>12.35068198418886</v>
+        <v>7.199777404736452</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>4.544691886453016</v>
+        <v>2.649308758614472</v>
       </c>
       <c r="C4">
-        <v>0.1449279802757506</v>
+        <v>0.08448514819175539</v>
       </c>
       <c r="D4">
-        <v>1.97746294955023</v>
+        <v>1.152753595396723</v>
       </c>
       <c r="E4">
-        <v>0.7218924301971807</v>
+        <v>0.4208241143475038</v>
       </c>
       <c r="F4">
-        <v>1.604258649585653</v>
+        <v>0.9351957399134969</v>
       </c>
       <c r="G4">
-        <v>4.231339191902256</v>
+        <v>2.466641141325966</v>
       </c>
       <c r="H4">
-        <v>0.04312060742147036</v>
+        <v>0.02513697424879513</v>
       </c>
       <c r="I4">
-        <v>13.26769369538555</v>
+        <v>7.734345472038711</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>5.715824026423601</v>
+        <v>3.332015246411277</v>
       </c>
       <c r="C5">
-        <v>0.1932373070343341</v>
+        <v>0.1126468642556738</v>
       </c>
       <c r="D5">
-        <v>1.819265913586211</v>
+        <v>1.060533307764985</v>
       </c>
       <c r="E5">
-        <v>0.7218924301971807</v>
+        <v>0.4208241143475038</v>
       </c>
       <c r="F5">
-        <v>1.538330211931448</v>
+        <v>0.8967630382732162</v>
       </c>
       <c r="G5">
-        <v>3.966880492408366</v>
+        <v>2.312476069993094</v>
       </c>
       <c r="H5">
-        <v>0.04312060742147036</v>
+        <v>0.02513697424879513</v>
       </c>
       <c r="I5">
-        <v>13.99855098900261</v>
+        <v>8.160395615294545</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>5.829441323584926</v>
+        <v>3.398247965376639</v>
       </c>
       <c r="C6">
-        <v>0.3381652873100847</v>
+        <v>0.1971320124474293</v>
       </c>
       <c r="D6">
-        <v>1.898364431568221</v>
+        <v>1.106643451580854</v>
       </c>
       <c r="E6">
-        <v>0.8021027002190895</v>
+        <v>0.4675823492750042</v>
       </c>
       <c r="F6">
-        <v>2.021805421395618</v>
+        <v>1.178602850301941</v>
       </c>
       <c r="G6">
-        <v>4.40764499156485</v>
+        <v>2.569417855547881</v>
       </c>
       <c r="H6">
-        <v>0.1724824296858815</v>
+        <v>0.1005478969951805</v>
       </c>
       <c r="I6">
-        <v>15.47000658532867</v>
+        <v>9.018174381524929</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>5.208916085242302</v>
+        <v>3.036515423335048</v>
       </c>
       <c r="C7">
-        <v>0.1932373070343341</v>
+        <v>0.1126468642556738</v>
       </c>
       <c r="D7">
-        <v>2.372955539460276</v>
+        <v>1.383304314476068</v>
       </c>
       <c r="E7">
-        <v>0.8823129702409986</v>
+        <v>0.5143405842025045</v>
       </c>
       <c r="F7">
-        <v>2.219590734358232</v>
+        <v>1.293900955222784</v>
       </c>
       <c r="G7">
-        <v>3.966880492408366</v>
+        <v>2.312476069993094</v>
       </c>
       <c r="H7">
-        <v>0.6899297187435258</v>
+        <v>0.4021915879807221</v>
       </c>
       <c r="I7">
-        <v>15.53382284748804</v>
+        <v>9.055375799465894</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>5.742043402691597</v>
+        <v>3.34729972001867</v>
       </c>
       <c r="C8">
-        <v>0.2173919704136258</v>
+        <v>0.126727722287633</v>
       </c>
       <c r="D8">
-        <v>3.084842201298359</v>
+        <v>1.798295608818888</v>
       </c>
       <c r="E8">
-        <v>0.9625232402629076</v>
+        <v>0.561098819130005</v>
       </c>
       <c r="F8">
-        <v>1.538330211931448</v>
+        <v>0.8967630382732162</v>
       </c>
       <c r="G8">
-        <v>3.261657293757989</v>
+        <v>1.901369213105432</v>
       </c>
       <c r="H8">
-        <v>0.3449648593717629</v>
+        <v>0.201095793990361</v>
       </c>
       <c r="I8">
-        <v>15.15175317972769</v>
+        <v>8.832649915624206</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>6.301390096408891</v>
+        <v>3.673368490309681</v>
       </c>
       <c r="C9">
-        <v>0.1449279802757506</v>
+        <v>0.08448514819175539</v>
       </c>
       <c r="D9">
-        <v>2.84754664735233</v>
+        <v>1.659965177371281</v>
       </c>
       <c r="E9">
-        <v>1.684415670460089</v>
+        <v>0.9819229334775083</v>
       </c>
       <c r="F9">
-        <v>1.802043962548268</v>
+        <v>1.050493844834339</v>
       </c>
       <c r="G9">
-        <v>2.556434095107613</v>
+        <v>1.490262356217772</v>
       </c>
       <c r="H9">
-        <v>0.2156030371073518</v>
+        <v>0.1256848712439756</v>
       </c>
       <c r="I9">
-        <v>15.55236148926029</v>
+        <v>9.066182821646313</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>8.975766475744706</v>
+        <v>5.232384798263581</v>
       </c>
       <c r="C10">
-        <v>0.2173919704136258</v>
+        <v>0.126727722287633</v>
       </c>
       <c r="D10">
-        <v>2.372955539460276</v>
+        <v>1.383304314476068</v>
       </c>
       <c r="E10">
-        <v>1.443784860394361</v>
+        <v>0.8416482286950077</v>
       </c>
       <c r="F10">
-        <v>1.516354066046713</v>
+        <v>0.883952137726456</v>
       </c>
       <c r="G10">
-        <v>2.027516696119831</v>
+        <v>1.181932213552025</v>
       </c>
       <c r="H10">
-        <v>0.1724824296858815</v>
+        <v>0.1005478969951805</v>
       </c>
       <c r="I10">
-        <v>16.72625203786539</v>
+        <v>9.750497311995952</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,25 +699,25 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>8.949547099476709</v>
+        <v>5.21710032465619</v>
       </c>
       <c r="C11">
-        <v>0.1932373070343341</v>
+        <v>0.1126468642556738</v>
       </c>
       <c r="D11">
-        <v>1.97746294955023</v>
+        <v>1.152753595396723</v>
       </c>
       <c r="E11">
-        <v>2.165677290591542</v>
+        <v>1.262472343042511</v>
       </c>
       <c r="F11">
-        <v>0.8790458353893992</v>
+        <v>0.5124360218704093</v>
       </c>
       <c r="G11">
-        <v>2.115669595951128</v>
+        <v>1.233320570662983</v>
       </c>
       <c r="I11">
-        <v>16.28064007799334</v>
+        <v>9.490729719884492</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -725,25 +725,25 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>6.956874503108848</v>
+        <v>4.05548033049446</v>
       </c>
       <c r="C12">
-        <v>0.3623199506893765</v>
+        <v>0.2112128704793884</v>
       </c>
       <c r="D12">
-        <v>1.423773323676165</v>
+        <v>0.8299825886856407</v>
       </c>
       <c r="E12">
-        <v>1.844836210503906</v>
+        <v>1.07543940333251</v>
       </c>
       <c r="F12">
-        <v>1.032878856582544</v>
+        <v>0.6021123256977309</v>
       </c>
       <c r="G12">
-        <v>2.027516696119831</v>
+        <v>1.181932213552025</v>
       </c>
       <c r="I12">
-        <v>13.64819954068067</v>
+        <v>7.956159732241755</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -751,28 +751,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>5.575987352994278</v>
+        <v>3.250498053838524</v>
       </c>
       <c r="C13">
-        <v>0.2657012971722094</v>
+        <v>0.1548894383515515</v>
       </c>
       <c r="D13">
-        <v>1.740167395604202</v>
+        <v>1.014423163949116</v>
       </c>
       <c r="E13">
-        <v>1.283364320350543</v>
+        <v>0.7481317588400066</v>
       </c>
       <c r="F13">
-        <v>0.6153320847725794</v>
+        <v>0.3587052153092865</v>
       </c>
       <c r="G13">
-        <v>3.614268893083176</v>
+        <v>2.106922641549263</v>
       </c>
       <c r="H13">
-        <v>0.04312060742147036</v>
+        <v>0.02513697424879513</v>
       </c>
       <c r="I13">
-        <v>13.13794195139846</v>
+        <v>7.658707246086543</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -780,25 +780,25 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>4.16888082661171</v>
+        <v>2.430231303575198</v>
       </c>
       <c r="C14">
-        <v>0.1932373070343341</v>
+        <v>0.1126468642556738</v>
       </c>
       <c r="D14">
-        <v>0.9491822157841104</v>
+        <v>0.553321725790427</v>
       </c>
       <c r="E14">
-        <v>0.7218924301971807</v>
+        <v>0.4208241143475038</v>
       </c>
       <c r="F14">
-        <v>0.4614990635794344</v>
+        <v>0.2690289114819648</v>
       </c>
       <c r="G14">
-        <v>3.702421792914473</v>
+        <v>2.158310998660221</v>
       </c>
       <c r="I14">
-        <v>10.19711363612124</v>
+        <v>5.944363918110989</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -806,25 +806,25 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>2.744294716050474</v>
+        <v>1.599774904240278</v>
       </c>
       <c r="C15">
-        <v>0.2657012971722094</v>
+        <v>0.1548894383515515</v>
       </c>
       <c r="D15">
-        <v>0.9491822157841104</v>
+        <v>0.553321725790427</v>
       </c>
       <c r="E15">
-        <v>0.7218924301971807</v>
+        <v>0.4208241143475038</v>
       </c>
       <c r="F15">
-        <v>0.5494036471183743</v>
+        <v>0.3202725136690058</v>
       </c>
       <c r="G15">
-        <v>2.291975395613722</v>
+        <v>1.336097284884899</v>
       </c>
       <c r="I15">
-        <v>7.522449701936072</v>
+        <v>4.385179981283665</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -832,25 +832,25 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>1.372147358025237</v>
+        <v>0.7998874521201389</v>
       </c>
       <c r="C16">
-        <v>0.2173919704136258</v>
+        <v>0.126727722287633</v>
       </c>
       <c r="D16">
-        <v>0.5536896258740643</v>
+        <v>0.3227710067110824</v>
       </c>
       <c r="E16">
-        <v>0.5614718901533629</v>
+        <v>0.3273076444925029</v>
       </c>
       <c r="F16">
-        <v>0.2417376047320847</v>
+        <v>0.1409199060143626</v>
       </c>
       <c r="G16">
-        <v>1.76305799662594</v>
+        <v>1.027767142219153</v>
       </c>
       <c r="I16">
-        <v>4.709496445824314</v>
+        <v>2.745380873844873</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -858,25 +858,25 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>0.9963362981839307</v>
+        <v>0.5808099970808647</v>
       </c>
       <c r="C17">
-        <v>0.1932373070343341</v>
+        <v>0.1126468642556738</v>
       </c>
       <c r="D17">
-        <v>0.07909851798200919</v>
+        <v>0.04611014381586892</v>
       </c>
       <c r="E17">
-        <v>0.4010513501095447</v>
+        <v>0.2337911746375021</v>
       </c>
       <c r="F17">
-        <v>0.2637137506168197</v>
+        <v>0.1537308065611228</v>
       </c>
       <c r="G17">
-        <v>1.145987697806861</v>
+        <v>0.6680486424424494</v>
       </c>
       <c r="I17">
-        <v>3.0794249217335</v>
+        <v>1.795137628793482</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -884,25 +884,25 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>0.5855660699852926</v>
+        <v>0.3413532438984033</v>
       </c>
       <c r="C18">
-        <v>0.3381652873100847</v>
+        <v>0.1971320124474293</v>
       </c>
       <c r="D18">
-        <v>0.3163940719280368</v>
+        <v>0.1844405752634757</v>
       </c>
       <c r="E18">
-        <v>0.2406308100657269</v>
+        <v>0.1402747047825013</v>
       </c>
       <c r="F18">
-        <v>0.2197614588473498</v>
+        <v>0.1281090054676023</v>
       </c>
       <c r="G18">
-        <v>1.145987697806861</v>
+        <v>0.6680486424424494</v>
       </c>
       <c r="I18">
-        <v>2.846505395943352</v>
+        <v>1.659358184301861</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -910,22 +910,22 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>0.4632089807346346</v>
+        <v>0.2700257003972442</v>
       </c>
       <c r="C19">
-        <v>0.1449279802757506</v>
+        <v>0.08448514819175539</v>
       </c>
       <c r="D19">
-        <v>0.07909851798200919</v>
+        <v>0.04611014381586892</v>
       </c>
       <c r="F19">
-        <v>0.2197614588473498</v>
+        <v>0.1281090054676023</v>
       </c>
       <c r="G19">
-        <v>1.234140597638158</v>
+        <v>0.7194369995534069</v>
       </c>
       <c r="I19">
-        <v>2.141137535477903</v>
+        <v>1.248166997425878</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -933,25 +933,25 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>0.4107702281986378</v>
+        <v>0.2394567531824619</v>
       </c>
       <c r="C20">
-        <v>0.0724639901378753</v>
+        <v>0.04224257409587769</v>
       </c>
       <c r="D20">
-        <v>0.3163940719280368</v>
+        <v>0.1844405752634757</v>
       </c>
       <c r="E20">
-        <v>0.08021027002190896</v>
+        <v>0.04675823492750041</v>
       </c>
       <c r="F20">
-        <v>0.3735944800404946</v>
+        <v>0.217785309294924</v>
       </c>
       <c r="G20">
-        <v>1.674905096794643</v>
+        <v>0.9763787851081951</v>
       </c>
       <c r="I20">
-        <v>2.928338137121597</v>
+        <v>1.707062231872435</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -959,25 +959,25 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>0.8477598326652742</v>
+        <v>0.4941979799723148</v>
       </c>
       <c r="C21">
-        <v>0.0724639901378753</v>
+        <v>0.04224257409587769</v>
       </c>
       <c r="D21">
-        <v>0.4745911078920552</v>
+        <v>0.2766608628952135</v>
       </c>
       <c r="E21">
-        <v>0.2406308100657269</v>
+        <v>0.1402747047825013</v>
       </c>
       <c r="F21">
-        <v>0.3516183341557596</v>
+        <v>0.2049744087481637</v>
       </c>
       <c r="G21">
-        <v>3.79057469274577</v>
+        <v>2.209699355771179</v>
       </c>
       <c r="I21">
-        <v>5.777638767662461</v>
+        <v>3.36804988626525</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -985,25 +985,25 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>2.228646982779845</v>
+        <v>1.29918025662825</v>
       </c>
       <c r="C22">
-        <v>0.0724639901378753</v>
+        <v>0.04224257409587769</v>
       </c>
       <c r="D22">
-        <v>1.581970359640183</v>
+        <v>0.9222028763173782</v>
       </c>
       <c r="E22">
-        <v>0.7218924301971807</v>
+        <v>0.4208241143475038</v>
       </c>
       <c r="F22">
-        <v>0.5713797930031094</v>
+        <v>0.3330834142157661</v>
       </c>
       <c r="G22">
-        <v>7.140384886335061</v>
+        <v>4.162456925987568</v>
       </c>
       <c r="I22">
-        <v>12.31673844209325</v>
+        <v>7.179990161592343</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1011,28 +1011,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>5.121518164348978</v>
+        <v>2.985567177977077</v>
       </c>
       <c r="C23">
-        <v>0.1449279802757506</v>
+        <v>0.08448514819175539</v>
       </c>
       <c r="D23">
-        <v>1.344674805694156</v>
+        <v>0.7838724448697716</v>
       </c>
       <c r="E23">
-        <v>2.727149180744905</v>
+        <v>1.589779987535014</v>
       </c>
       <c r="F23">
-        <v>1.538330211931448</v>
+        <v>0.8967630382732162</v>
       </c>
       <c r="G23">
-        <v>6.523314587515978</v>
+        <v>3.802738426210865</v>
       </c>
       <c r="H23">
-        <v>0.1724824296858815</v>
+        <v>0.1005478969951805</v>
       </c>
       <c r="I23">
-        <v>17.5723973601971</v>
+        <v>10.24375412005288</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1040,28 +1040,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>6.6247624037142</v>
+        <v>3.861876998134172</v>
       </c>
       <c r="C24">
-        <v>0.1690826436550424</v>
+        <v>0.09856600622371463</v>
       </c>
       <c r="D24">
-        <v>1.344674805694156</v>
+        <v>0.7838724448697716</v>
       </c>
       <c r="E24">
-        <v>1.684415670460089</v>
+        <v>0.9819229334775083</v>
       </c>
       <c r="F24">
-        <v>1.384497190738303</v>
+        <v>0.8070867344458946</v>
       </c>
       <c r="G24">
-        <v>5.28917398987782</v>
+        <v>3.083301426657458</v>
       </c>
       <c r="H24">
-        <v>0.1724824296858815</v>
+        <v>0.1005478969951805</v>
       </c>
       <c r="I24">
-        <v>16.66908913382549</v>
+        <v>9.717174440803699</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1069,28 +1069,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>7.787154751595455</v>
+        <v>4.539488661395179</v>
       </c>
       <c r="C25">
-        <v>0.1207733168964588</v>
+        <v>0.07040429015979614</v>
       </c>
       <c r="D25">
-        <v>2.293857021478267</v>
+        <v>1.337194170660199</v>
       </c>
       <c r="E25">
-        <v>1.52399513041627</v>
+        <v>0.8884064636225077</v>
       </c>
       <c r="F25">
-        <v>1.164735731890954</v>
+        <v>0.6789777289782926</v>
       </c>
       <c r="G25">
-        <v>4.231339191902256</v>
+        <v>2.466641141325966</v>
       </c>
       <c r="H25">
-        <v>0.2587236445288221</v>
+        <v>0.1508218454927707</v>
       </c>
       <c r="I25">
-        <v>17.38057878870848</v>
+        <v>10.13193430163471</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1098,28 +1098,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>6.345089056855556</v>
+        <v>3.698842612988667</v>
       </c>
       <c r="C26">
-        <v>0.3864746140686682</v>
+        <v>0.2252937285113476</v>
       </c>
       <c r="D26">
-        <v>2.056561467532239</v>
+        <v>1.198863739212592</v>
       </c>
       <c r="E26">
-        <v>1.52399513041627</v>
+        <v>0.8884064636225077</v>
       </c>
       <c r="F26">
-        <v>1.758091670778798</v>
+        <v>1.024872043740819</v>
       </c>
       <c r="G26">
-        <v>6.347008787853384</v>
+        <v>3.699961711988951</v>
       </c>
       <c r="H26">
-        <v>0.3018442519502926</v>
+        <v>0.1759588197415659</v>
       </c>
       <c r="I26">
-        <v>18.71906497945521</v>
+        <v>10.91219911980645</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1127,28 +1127,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>4.588390846899682</v>
+        <v>2.674782881293456</v>
       </c>
       <c r="C27">
-        <v>0.2898559605515012</v>
+        <v>0.1689702963835108</v>
       </c>
       <c r="D27">
-        <v>1.898364431568221</v>
+        <v>1.106643451580854</v>
       </c>
       <c r="E27">
-        <v>0.5614718901533629</v>
+        <v>0.3273076444925029</v>
       </c>
       <c r="F27">
-        <v>2.131686150819293</v>
+        <v>1.242657353035743</v>
       </c>
       <c r="G27">
-        <v>5.28917398987782</v>
+        <v>3.083301426657458</v>
       </c>
       <c r="H27">
-        <v>0.2587236445288221</v>
+        <v>0.1508218454927707</v>
       </c>
       <c r="I27">
-        <v>15.0176669143987</v>
+        <v>8.754484898936296</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1156,28 +1156,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>4.955462114651655</v>
+        <v>2.888765511796933</v>
       </c>
       <c r="C28">
-        <v>0.1690826436550424</v>
+        <v>0.09856600622371463</v>
       </c>
       <c r="D28">
-        <v>2.135659985514248</v>
+        <v>1.244973883028461</v>
       </c>
       <c r="E28">
-        <v>0.8021027002190895</v>
+        <v>0.4675823492750042</v>
       </c>
       <c r="F28">
-        <v>1.758091670778798</v>
+        <v>1.024872043740819</v>
       </c>
       <c r="G28">
-        <v>4.583950791227444</v>
+        <v>2.672194569769798</v>
       </c>
       <c r="H28">
-        <v>0.04312060742147036</v>
+        <v>0.02513697424879513</v>
       </c>
       <c r="I28">
-        <v>14.44747051346775</v>
+        <v>8.422091338083524</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1185,28 +1185,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>5.471109847922285</v>
+        <v>3.189360159408961</v>
       </c>
       <c r="C29">
-        <v>0.2657012971722094</v>
+        <v>0.1548894383515515</v>
       </c>
       <c r="D29">
-        <v>1.581970359640183</v>
+        <v>0.9222028763173782</v>
       </c>
       <c r="E29">
-        <v>0.7218924301971807</v>
+        <v>0.4208241143475038</v>
       </c>
       <c r="F29">
-        <v>1.802043962548268</v>
+        <v>1.050493844834339</v>
       </c>
       <c r="G29">
-        <v>3.173504393926692</v>
+        <v>1.849980855994475</v>
       </c>
       <c r="H29">
-        <v>0.1724824296858815</v>
+        <v>0.1005478969951805</v>
       </c>
       <c r="I29">
-        <v>13.1887047210927</v>
+        <v>7.68829918624939</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1214,28 +1214,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>6.012976957460912</v>
+        <v>3.505239280628377</v>
       </c>
       <c r="C30">
-        <v>0.2898559605515012</v>
+        <v>0.1689702963835108</v>
       </c>
       <c r="D30">
-        <v>1.97746294955023</v>
+        <v>1.152753595396723</v>
       </c>
       <c r="E30">
-        <v>0.7218924301971807</v>
+        <v>0.4208241143475038</v>
       </c>
       <c r="F30">
-        <v>1.428449482507773</v>
+        <v>0.832708535539415</v>
       </c>
       <c r="G30">
-        <v>3.702421792914473</v>
+        <v>2.158310998660221</v>
       </c>
       <c r="H30">
-        <v>0.04312060742147036</v>
+        <v>0.02513697424879513</v>
       </c>
       <c r="I30">
-        <v>14.17618018060354</v>
+        <v>8.263943795204545</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1243,28 +1243,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>5.628426105530274</v>
+        <v>3.281067001053306</v>
       </c>
       <c r="C31">
-        <v>0.2173919704136258</v>
+        <v>0.126727722287633</v>
       </c>
       <c r="D31">
-        <v>1.97746294955023</v>
+        <v>1.152753595396723</v>
       </c>
       <c r="E31">
-        <v>0.6416821601752717</v>
+        <v>0.3740658794200033</v>
       </c>
       <c r="F31">
-        <v>2.153662296704028</v>
+        <v>1.255468253582503</v>
       </c>
       <c r="G31">
-        <v>3.526115993251881</v>
+        <v>2.055534284438305</v>
       </c>
       <c r="H31">
-        <v>0.2156030371073518</v>
+        <v>0.1256848712439756</v>
       </c>
       <c r="I31">
-        <v>14.36034451273266</v>
+        <v>8.371301607422449</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1272,28 +1272,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>6.371308433123556</v>
+        <v>3.714127086596059</v>
       </c>
       <c r="C32">
-        <v>0.3140106239307929</v>
+        <v>0.1830511544154699</v>
       </c>
       <c r="D32">
-        <v>1.502871841658175</v>
+        <v>0.8760927325015095</v>
       </c>
       <c r="E32">
-        <v>0.6416821601752717</v>
+        <v>0.3740658794200033</v>
       </c>
       <c r="F32">
-        <v>1.516354066046713</v>
+        <v>0.883952137726456</v>
       </c>
       <c r="G32">
-        <v>3.702421792914473</v>
+        <v>2.158310998660221</v>
       </c>
       <c r="H32">
-        <v>0.1293618222644111</v>
+        <v>0.07541092274638536</v>
       </c>
       <c r="I32">
-        <v>14.17801074011339</v>
+        <v>8.265010912066105</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1301,28 +1301,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>6.913175542662182</v>
+        <v>4.030006207815475</v>
       </c>
       <c r="C33">
-        <v>0.1932373070343341</v>
+        <v>0.1126468642556738</v>
       </c>
       <c r="D33">
-        <v>2.768448129370321</v>
+        <v>1.613855033555412</v>
       </c>
       <c r="E33">
-        <v>1.52399513041627</v>
+        <v>0.8884064636225077</v>
       </c>
       <c r="F33">
-        <v>1.845996254317738</v>
+        <v>1.076115645927859</v>
       </c>
       <c r="G33">
-        <v>2.203822495782425</v>
+        <v>1.284708927773941</v>
       </c>
       <c r="H33">
-        <v>0.2156030371073518</v>
+        <v>0.1256848712439756</v>
       </c>
       <c r="I33">
-        <v>15.66427789669062</v>
+        <v>9.131424014194845</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1330,28 +1330,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>8.267843316508756</v>
+        <v>4.819704010864018</v>
       </c>
       <c r="C34">
-        <v>0.2657012971722094</v>
+        <v>0.1548894383515515</v>
       </c>
       <c r="D34">
-        <v>2.531152575424294</v>
+        <v>1.475524602107805</v>
       </c>
       <c r="E34">
-        <v>1.764625940481997</v>
+        <v>1.028681168405009</v>
       </c>
       <c r="F34">
-        <v>1.252640315429894</v>
+        <v>0.7302213311653333</v>
       </c>
       <c r="G34">
-        <v>1.410446397300752</v>
+        <v>0.8222137137753223</v>
       </c>
       <c r="H34">
-        <v>0.04312060742147036</v>
+        <v>0.02513697424879513</v>
       </c>
       <c r="I34">
-        <v>15.53553044973937</v>
+        <v>9.056371238917835</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1359,25 +1359,25 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>8.704832920975393</v>
+        <v>5.074445237653867</v>
       </c>
       <c r="C35">
-        <v>0.1690826436550424</v>
+        <v>0.09856600622371463</v>
       </c>
       <c r="D35">
-        <v>1.819265913586211</v>
+        <v>1.060533307764985</v>
       </c>
       <c r="E35">
-        <v>2.165677290591542</v>
+        <v>1.262472343042511</v>
       </c>
       <c r="F35">
-        <v>0.6592843765420494</v>
+        <v>0.3843270164028069</v>
       </c>
       <c r="G35">
-        <v>1.939363796288534</v>
+        <v>1.130543856441068</v>
       </c>
       <c r="I35">
-        <v>15.45750694163877</v>
+        <v>9.010887767528953</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1385,25 +1385,25 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>8.128006643079434</v>
+        <v>4.738186818291267</v>
       </c>
       <c r="C36">
-        <v>0.1207733168964588</v>
+        <v>0.07040429015979614</v>
       </c>
       <c r="D36">
-        <v>1.898364431568221</v>
+        <v>1.106643451580854</v>
       </c>
       <c r="E36">
-        <v>1.604205400438179</v>
+        <v>0.9351646985500084</v>
       </c>
       <c r="F36">
-        <v>0.9229981271588689</v>
+        <v>0.5380578229639297</v>
       </c>
       <c r="G36">
-        <v>2.909045694432801</v>
+        <v>1.695815784661602</v>
       </c>
       <c r="I36">
-        <v>15.58339361357396</v>
+        <v>9.084272866207456</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1411,25 +1411,25 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>5.034120243455649</v>
+        <v>2.934618932619109</v>
       </c>
       <c r="C37">
-        <v>0.2657012971722094</v>
+        <v>0.1548894383515515</v>
       </c>
       <c r="D37">
-        <v>1.740167395604202</v>
+        <v>1.014423163949116</v>
       </c>
       <c r="E37">
-        <v>1.925046480525815</v>
+        <v>1.12219763826001</v>
       </c>
       <c r="F37">
-        <v>0.4395229176946996</v>
+        <v>0.2562180109352046</v>
       </c>
       <c r="G37">
-        <v>2.997198594264098</v>
+        <v>1.74720414177256</v>
       </c>
       <c r="I37">
-        <v>12.40175692871667</v>
+        <v>7.229551325887551</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1437,25 +1437,25 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>4.317457292130365</v>
+        <v>2.516843320683747</v>
       </c>
       <c r="C38">
-        <v>0.2173919704136258</v>
+        <v>0.126727722287633</v>
       </c>
       <c r="D38">
-        <v>1.423773323676165</v>
+        <v>0.8299825886856407</v>
       </c>
       <c r="E38">
-        <v>0.8021027002190895</v>
+        <v>0.4675823492750042</v>
       </c>
       <c r="F38">
-        <v>0.5933559388878443</v>
+        <v>0.3458943147625262</v>
       </c>
       <c r="G38">
-        <v>2.909045694432801</v>
+        <v>1.695815784661602</v>
       </c>
       <c r="I38">
-        <v>10.26312691975989</v>
+        <v>5.982846080356153</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1463,28 +1463,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>2.997748686641122</v>
+        <v>1.747524815778391</v>
       </c>
       <c r="C39">
-        <v>0.3381652873100847</v>
+        <v>0.1971320124474293</v>
       </c>
       <c r="D39">
-        <v>0.870083697802101</v>
+        <v>0.5072115819745582</v>
       </c>
       <c r="E39">
-        <v>1.042733510284816</v>
+        <v>0.6078570540575055</v>
       </c>
       <c r="F39">
-        <v>0.3516183341557596</v>
+        <v>0.2049744087481637</v>
       </c>
       <c r="G39">
-        <v>2.380128295445019</v>
+        <v>1.387485641995856</v>
       </c>
       <c r="H39">
-        <v>0.04312060742147036</v>
+        <v>0.02513697424879513</v>
       </c>
       <c r="I39">
-        <v>8.023598419060372</v>
+        <v>4.677322489250699</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1492,25 +1492,25 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>1.870315507117203</v>
+        <v>1.090292450660571</v>
       </c>
       <c r="C40">
-        <v>0.2173919704136258</v>
+        <v>0.126727722287633</v>
       </c>
       <c r="D40">
-        <v>0.3163940719280368</v>
+        <v>0.1844405752634757</v>
       </c>
       <c r="E40">
-        <v>0.5614718901533629</v>
+        <v>0.3273076444925029</v>
       </c>
       <c r="F40">
-        <v>0.3296421882710247</v>
+        <v>0.1921635082014035</v>
       </c>
       <c r="G40">
-        <v>1.145987697806861</v>
+        <v>0.6680486424424494</v>
       </c>
       <c r="I40">
-        <v>4.441203325690115</v>
+        <v>2.588980543348036</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1518,25 +1518,25 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>1.005076090273263</v>
+        <v>0.585904821616662</v>
       </c>
       <c r="C41">
-        <v>0.3381652873100847</v>
+        <v>0.1971320124474293</v>
       </c>
       <c r="D41">
-        <v>0.3163940719280368</v>
+        <v>0.1844405752634757</v>
       </c>
       <c r="E41">
-        <v>0.4010513501095447</v>
+        <v>0.2337911746375021</v>
       </c>
       <c r="F41">
-        <v>0.3516183341557596</v>
+        <v>0.2049744087481637</v>
       </c>
       <c r="G41">
-        <v>1.322293497469455</v>
+        <v>0.7708253566643645</v>
       </c>
       <c r="I41">
-        <v>3.734598631246143</v>
+        <v>2.177068349377597</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1544,25 +1544,25 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>0.5855660699852926</v>
+        <v>0.3413532438984033</v>
       </c>
       <c r="C42">
-        <v>0.1932373070343341</v>
+        <v>0.1126468642556738</v>
       </c>
       <c r="D42">
-        <v>0.2372955539460276</v>
+        <v>0.1383304314476068</v>
       </c>
       <c r="E42">
-        <v>0.3208410800876358</v>
+        <v>0.1870329397100016</v>
       </c>
       <c r="F42">
-        <v>0.3296421882710247</v>
+        <v>0.1921635082014035</v>
       </c>
       <c r="G42">
-        <v>0.8815289983129702</v>
+        <v>0.5138835711095763</v>
       </c>
       <c r="I42">
-        <v>2.548111197637285</v>
+        <v>1.485410558622665</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1570,22 +1570,22 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>0.4457293965559688</v>
+        <v>0.25983605132565</v>
       </c>
       <c r="C43">
-        <v>0.1449279802757506</v>
+        <v>0.08448514819175539</v>
       </c>
       <c r="D43">
-        <v>0.1581970359640184</v>
+        <v>0.09222028763173784</v>
       </c>
       <c r="F43">
-        <v>0.2197614588473498</v>
+        <v>0.1281090054676023</v>
       </c>
       <c r="G43">
-        <v>1.586752196963346</v>
+        <v>0.9249904279972376</v>
       </c>
       <c r="I43">
-        <v>2.555368068606434</v>
+        <v>1.489640920613983</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1593,25 +1593,25 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>0.3408518914839763</v>
+        <v>0.1986981568960853</v>
       </c>
       <c r="C44">
-        <v>0.0724639901378753</v>
+        <v>0.04224257409587769</v>
       </c>
       <c r="D44">
-        <v>0.1581970359640184</v>
+        <v>0.09222028763173784</v>
       </c>
       <c r="E44">
-        <v>0.08021027002190896</v>
+        <v>0.04675823492750041</v>
       </c>
       <c r="F44">
-        <v>0.3516183341557596</v>
+        <v>0.2049744087481637</v>
       </c>
       <c r="G44">
-        <v>2.027516696119831</v>
+        <v>1.181932213552025</v>
       </c>
       <c r="I44">
-        <v>3.03085821788337</v>
+        <v>1.76682587585139</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1619,25 +1619,25 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>1.031295466541262</v>
+        <v>0.6011892952240533</v>
       </c>
       <c r="C45">
-        <v>0.1207733168964588</v>
+        <v>0.07040429015979614</v>
       </c>
       <c r="D45">
-        <v>0.6327881438560735</v>
+        <v>0.3688811505269514</v>
       </c>
       <c r="E45">
-        <v>0.4010513501095447</v>
+        <v>0.2337911746375021</v>
       </c>
       <c r="F45">
-        <v>0.4175467718099646</v>
+        <v>0.2434071103884444</v>
       </c>
       <c r="G45">
-        <v>3.349810193589287</v>
+        <v>1.95275757021639</v>
       </c>
       <c r="I45">
-        <v>5.953265242802591</v>
+        <v>3.470430591153137</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1645,25 +1645,25 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>1.826616546670539</v>
+        <v>1.064818327981586</v>
       </c>
       <c r="D46">
-        <v>1.581970359640183</v>
+        <v>0.9222028763173782</v>
       </c>
       <c r="E46">
-        <v>0.9625232402629076</v>
+        <v>0.561098819130005</v>
       </c>
       <c r="F46">
-        <v>0.7252128141962541</v>
+        <v>0.4227597180430877</v>
       </c>
       <c r="G46">
-        <v>7.316690685997653</v>
+        <v>4.265233640209485</v>
       </c>
       <c r="H46">
-        <v>0.1293618222644111</v>
+        <v>0.07541092274638536</v>
       </c>
       <c r="I46">
-        <v>12.54237546903195</v>
+        <v>7.311524304427927</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1671,28 +1671,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>5.392451719118287</v>
+        <v>3.143506738586786</v>
       </c>
       <c r="C47">
-        <v>0.1932373070343341</v>
+        <v>0.1126468642556738</v>
       </c>
       <c r="D47">
-        <v>1.819265913586211</v>
+        <v>1.060533307764985</v>
       </c>
       <c r="E47">
-        <v>2.727149180744905</v>
+        <v>1.589779987535014</v>
       </c>
       <c r="F47">
-        <v>1.560306357816183</v>
+        <v>0.9095739388199766</v>
       </c>
       <c r="G47">
-        <v>7.492996485660248</v>
+        <v>4.3680103544314</v>
       </c>
       <c r="H47">
-        <v>0.08624121484294073</v>
+        <v>0.05027394849759026</v>
       </c>
       <c r="I47">
-        <v>19.27164817880311</v>
+        <v>11.23432513989142</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1700,28 +1700,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>6.441226769838216</v>
+        <v>3.754885682882434</v>
       </c>
       <c r="C48">
-        <v>0.3623199506893765</v>
+        <v>0.2112128704793884</v>
       </c>
       <c r="D48">
-        <v>1.186477769730138</v>
+        <v>0.6916521572380339</v>
       </c>
       <c r="E48">
-        <v>1.764625940481997</v>
+        <v>1.028681168405009</v>
       </c>
       <c r="F48">
-        <v>1.428449482507773</v>
+        <v>0.832708535539415</v>
       </c>
       <c r="G48">
-        <v>5.553632689371712</v>
+        <v>3.237466497990332</v>
       </c>
       <c r="H48">
-        <v>0.2156030371073518</v>
+        <v>0.1256848712439756</v>
       </c>
       <c r="I48">
-        <v>16.95233563972657</v>
+        <v>9.882291783778587</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1729,28 +1729,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>8.189185187704766</v>
+        <v>4.773850590041846</v>
       </c>
       <c r="C49">
-        <v>0.09661865351716704</v>
+        <v>0.05632343212783691</v>
       </c>
       <c r="D49">
-        <v>2.214758503496257</v>
+        <v>1.29108402684433</v>
       </c>
       <c r="E49">
-        <v>1.604205400438179</v>
+        <v>0.9351646985500084</v>
       </c>
       <c r="F49">
-        <v>1.296592607199364</v>
+        <v>0.7558431322588537</v>
       </c>
       <c r="G49">
-        <v>5.02471529038393</v>
+        <v>2.929136355324585</v>
       </c>
       <c r="H49">
-        <v>0.04312060742147036</v>
+        <v>0.02513697424879513</v>
       </c>
       <c r="I49">
-        <v>18.46919625016113</v>
+        <v>10.76653920939625</v>
       </c>
     </row>
   </sheetData>

--- a/output/동부대로_S_여름_배출량/동부대로_S_여름_배출량_PM25_재비산.xlsx
+++ b/output/동부대로_S_여름_배출량/동부대로_S_여름_배출량_PM25_재비산.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>3.097653317764612</v>
+        <v>5.313793590314296</v>
       </c>
       <c r="C2">
-        <v>0.1689702963835108</v>
+        <v>0.2898559605515012</v>
       </c>
       <c r="D2">
-        <v>1.014423163949116</v>
+        <v>1.740167395604202</v>
       </c>
       <c r="E2">
-        <v>0.7481317588400066</v>
+        <v>1.283364320350543</v>
       </c>
       <c r="F2">
-        <v>0.8198976349926549</v>
+        <v>1.406473336623038</v>
       </c>
       <c r="G2">
-        <v>3.031913069546501</v>
+        <v>5.201021090046522</v>
       </c>
       <c r="H2">
-        <v>0.201095793990361</v>
+        <v>0.3449648593717629</v>
       </c>
       <c r="I2">
-        <v>9.082085035466761</v>
+        <v>15.57964055286187</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>2.23662797121491</v>
+        <v>3.836768727217065</v>
       </c>
       <c r="C3">
-        <v>0.126727722287633</v>
+        <v>0.2173919704136258</v>
       </c>
       <c r="D3">
-        <v>0.9222028763173782</v>
+        <v>1.581970359640183</v>
       </c>
       <c r="E3">
-        <v>0.2337911746375021</v>
+        <v>0.4010513501095447</v>
       </c>
       <c r="F3">
-        <v>0.9864393421005379</v>
+        <v>1.692163233124593</v>
       </c>
       <c r="G3">
-        <v>2.518029498436925</v>
+        <v>4.319492091733554</v>
       </c>
       <c r="H3">
-        <v>0.1759588197415659</v>
+        <v>0.3018442519502926</v>
       </c>
       <c r="I3">
-        <v>7.199777404736452</v>
+        <v>12.35068198418886</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>2.649308758614472</v>
+        <v>4.544691886453016</v>
       </c>
       <c r="C4">
-        <v>0.08448514819175539</v>
+        <v>0.1449279802757506</v>
       </c>
       <c r="D4">
-        <v>1.152753595396723</v>
+        <v>1.97746294955023</v>
       </c>
       <c r="E4">
-        <v>0.4208241143475038</v>
+        <v>0.7218924301971807</v>
       </c>
       <c r="F4">
-        <v>0.9351957399134969</v>
+        <v>1.604258649585653</v>
       </c>
       <c r="G4">
-        <v>2.466641141325966</v>
+        <v>4.231339191902256</v>
       </c>
       <c r="H4">
-        <v>0.02513697424879513</v>
+        <v>0.04312060742147036</v>
       </c>
       <c r="I4">
-        <v>7.734345472038711</v>
+        <v>13.26769369538555</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>3.332015246411277</v>
+        <v>5.715824026423601</v>
       </c>
       <c r="C5">
-        <v>0.1126468642556738</v>
+        <v>0.1932373070343341</v>
       </c>
       <c r="D5">
-        <v>1.060533307764985</v>
+        <v>1.819265913586211</v>
       </c>
       <c r="E5">
-        <v>0.4208241143475038</v>
+        <v>0.7218924301971807</v>
       </c>
       <c r="F5">
-        <v>0.8967630382732162</v>
+        <v>1.538330211931448</v>
       </c>
       <c r="G5">
-        <v>2.312476069993094</v>
+        <v>3.966880492408366</v>
       </c>
       <c r="H5">
-        <v>0.02513697424879513</v>
+        <v>0.04312060742147036</v>
       </c>
       <c r="I5">
-        <v>8.160395615294545</v>
+        <v>13.99855098900261</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>3.398247965376639</v>
+        <v>5.829441323584926</v>
       </c>
       <c r="C6">
-        <v>0.1971320124474293</v>
+        <v>0.3381652873100847</v>
       </c>
       <c r="D6">
-        <v>1.106643451580854</v>
+        <v>1.898364431568221</v>
       </c>
       <c r="E6">
-        <v>0.4675823492750042</v>
+        <v>0.8021027002190895</v>
       </c>
       <c r="F6">
-        <v>1.178602850301941</v>
+        <v>2.021805421395618</v>
       </c>
       <c r="G6">
-        <v>2.569417855547881</v>
+        <v>4.40764499156485</v>
       </c>
       <c r="H6">
-        <v>0.1005478969951805</v>
+        <v>0.1724824296858815</v>
       </c>
       <c r="I6">
-        <v>9.018174381524929</v>
+        <v>15.47000658532867</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>3.036515423335048</v>
+        <v>5.208916085242302</v>
       </c>
       <c r="C7">
-        <v>0.1126468642556738</v>
+        <v>0.1932373070343341</v>
       </c>
       <c r="D7">
-        <v>1.383304314476068</v>
+        <v>2.372955539460276</v>
       </c>
       <c r="E7">
-        <v>0.5143405842025045</v>
+        <v>0.8823129702409986</v>
       </c>
       <c r="F7">
-        <v>1.293900955222784</v>
+        <v>2.219590734358232</v>
       </c>
       <c r="G7">
-        <v>2.312476069993094</v>
+        <v>3.966880492408366</v>
       </c>
       <c r="H7">
-        <v>0.4021915879807221</v>
+        <v>0.6899297187435258</v>
       </c>
       <c r="I7">
-        <v>9.055375799465894</v>
+        <v>15.53382284748804</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>3.34729972001867</v>
+        <v>5.742043402691597</v>
       </c>
       <c r="C8">
-        <v>0.126727722287633</v>
+        <v>0.2173919704136258</v>
       </c>
       <c r="D8">
-        <v>1.798295608818888</v>
+        <v>3.084842201298359</v>
       </c>
       <c r="E8">
-        <v>0.561098819130005</v>
+        <v>0.9625232402629076</v>
       </c>
       <c r="F8">
-        <v>0.8967630382732162</v>
+        <v>1.538330211931448</v>
       </c>
       <c r="G8">
-        <v>1.901369213105432</v>
+        <v>3.261657293757989</v>
       </c>
       <c r="H8">
-        <v>0.201095793990361</v>
+        <v>0.3449648593717629</v>
       </c>
       <c r="I8">
-        <v>8.832649915624206</v>
+        <v>15.15175317972769</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>3.673368490309681</v>
+        <v>6.301390096408891</v>
       </c>
       <c r="C9">
-        <v>0.08448514819175539</v>
+        <v>0.1449279802757506</v>
       </c>
       <c r="D9">
-        <v>1.659965177371281</v>
+        <v>2.84754664735233</v>
       </c>
       <c r="E9">
-        <v>0.9819229334775083</v>
+        <v>1.684415670460089</v>
       </c>
       <c r="F9">
-        <v>1.050493844834339</v>
+        <v>1.802043962548268</v>
       </c>
       <c r="G9">
-        <v>1.490262356217772</v>
+        <v>2.556434095107613</v>
       </c>
       <c r="H9">
-        <v>0.1256848712439756</v>
+        <v>0.2156030371073518</v>
       </c>
       <c r="I9">
-        <v>9.066182821646313</v>
+        <v>15.55236148926029</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>5.232384798263581</v>
+        <v>8.975766475744706</v>
       </c>
       <c r="C10">
-        <v>0.126727722287633</v>
+        <v>0.2173919704136258</v>
       </c>
       <c r="D10">
-        <v>1.383304314476068</v>
+        <v>2.372955539460276</v>
       </c>
       <c r="E10">
-        <v>0.8416482286950077</v>
+        <v>1.443784860394361</v>
       </c>
       <c r="F10">
-        <v>0.883952137726456</v>
+        <v>1.516354066046713</v>
       </c>
       <c r="G10">
-        <v>1.181932213552025</v>
+        <v>2.027516696119831</v>
       </c>
       <c r="H10">
-        <v>0.1005478969951805</v>
+        <v>0.1724824296858815</v>
       </c>
       <c r="I10">
-        <v>9.750497311995952</v>
+        <v>16.72625203786539</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,25 +699,25 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>5.21710032465619</v>
+        <v>8.949547099476709</v>
       </c>
       <c r="C11">
-        <v>0.1126468642556738</v>
+        <v>0.1932373070343341</v>
       </c>
       <c r="D11">
-        <v>1.152753595396723</v>
+        <v>1.97746294955023</v>
       </c>
       <c r="E11">
-        <v>1.262472343042511</v>
+        <v>2.165677290591542</v>
       </c>
       <c r="F11">
-        <v>0.5124360218704093</v>
+        <v>0.8790458353893992</v>
       </c>
       <c r="G11">
-        <v>1.233320570662983</v>
+        <v>2.115669595951128</v>
       </c>
       <c r="I11">
-        <v>9.490729719884492</v>
+        <v>16.28064007799334</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -725,25 +725,25 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>4.05548033049446</v>
+        <v>6.956874503108848</v>
       </c>
       <c r="C12">
-        <v>0.2112128704793884</v>
+        <v>0.3623199506893765</v>
       </c>
       <c r="D12">
-        <v>0.8299825886856407</v>
+        <v>1.423773323676165</v>
       </c>
       <c r="E12">
-        <v>1.07543940333251</v>
+        <v>1.844836210503906</v>
       </c>
       <c r="F12">
-        <v>0.6021123256977309</v>
+        <v>1.032878856582544</v>
       </c>
       <c r="G12">
-        <v>1.181932213552025</v>
+        <v>2.027516696119831</v>
       </c>
       <c r="I12">
-        <v>7.956159732241755</v>
+        <v>13.64819954068067</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -751,28 +751,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>3.250498053838524</v>
+        <v>5.575987352994278</v>
       </c>
       <c r="C13">
-        <v>0.1548894383515515</v>
+        <v>0.2657012971722094</v>
       </c>
       <c r="D13">
-        <v>1.014423163949116</v>
+        <v>1.740167395604202</v>
       </c>
       <c r="E13">
-        <v>0.7481317588400066</v>
+        <v>1.283364320350543</v>
       </c>
       <c r="F13">
-        <v>0.3587052153092865</v>
+        <v>0.6153320847725794</v>
       </c>
       <c r="G13">
-        <v>2.106922641549263</v>
+        <v>3.614268893083176</v>
       </c>
       <c r="H13">
-        <v>0.02513697424879513</v>
+        <v>0.04312060742147036</v>
       </c>
       <c r="I13">
-        <v>7.658707246086543</v>
+        <v>13.13794195139846</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -780,25 +780,25 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>2.430231303575198</v>
+        <v>4.16888082661171</v>
       </c>
       <c r="C14">
-        <v>0.1126468642556738</v>
+        <v>0.1932373070343341</v>
       </c>
       <c r="D14">
-        <v>0.553321725790427</v>
+        <v>0.9491822157841104</v>
       </c>
       <c r="E14">
-        <v>0.4208241143475038</v>
+        <v>0.7218924301971807</v>
       </c>
       <c r="F14">
-        <v>0.2690289114819648</v>
+        <v>0.4614990635794344</v>
       </c>
       <c r="G14">
-        <v>2.158310998660221</v>
+        <v>3.702421792914473</v>
       </c>
       <c r="I14">
-        <v>5.944363918110989</v>
+        <v>10.19711363612124</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -806,25 +806,25 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>1.599774904240278</v>
+        <v>2.744294716050474</v>
       </c>
       <c r="C15">
-        <v>0.1548894383515515</v>
+        <v>0.2657012971722094</v>
       </c>
       <c r="D15">
-        <v>0.553321725790427</v>
+        <v>0.9491822157841104</v>
       </c>
       <c r="E15">
-        <v>0.4208241143475038</v>
+        <v>0.7218924301971807</v>
       </c>
       <c r="F15">
-        <v>0.3202725136690058</v>
+        <v>0.5494036471183743</v>
       </c>
       <c r="G15">
-        <v>1.336097284884899</v>
+        <v>2.291975395613722</v>
       </c>
       <c r="I15">
-        <v>4.385179981283665</v>
+        <v>7.522449701936072</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -832,25 +832,25 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>0.7998874521201389</v>
+        <v>1.372147358025237</v>
       </c>
       <c r="C16">
-        <v>0.126727722287633</v>
+        <v>0.2173919704136258</v>
       </c>
       <c r="D16">
-        <v>0.3227710067110824</v>
+        <v>0.5536896258740643</v>
       </c>
       <c r="E16">
-        <v>0.3273076444925029</v>
+        <v>0.5614718901533629</v>
       </c>
       <c r="F16">
-        <v>0.1409199060143626</v>
+        <v>0.2417376047320847</v>
       </c>
       <c r="G16">
-        <v>1.027767142219153</v>
+        <v>1.76305799662594</v>
       </c>
       <c r="I16">
-        <v>2.745380873844873</v>
+        <v>4.709496445824314</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -858,25 +858,25 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>0.5808099970808647</v>
+        <v>0.9963362981839307</v>
       </c>
       <c r="C17">
-        <v>0.1126468642556738</v>
+        <v>0.1932373070343341</v>
       </c>
       <c r="D17">
-        <v>0.04611014381586892</v>
+        <v>0.07909851798200919</v>
       </c>
       <c r="E17">
-        <v>0.2337911746375021</v>
+        <v>0.4010513501095447</v>
       </c>
       <c r="F17">
-        <v>0.1537308065611228</v>
+        <v>0.2637137506168197</v>
       </c>
       <c r="G17">
-        <v>0.6680486424424494</v>
+        <v>1.145987697806861</v>
       </c>
       <c r="I17">
-        <v>1.795137628793482</v>
+        <v>3.0794249217335</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -884,25 +884,25 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>0.3413532438984033</v>
+        <v>0.5855660699852926</v>
       </c>
       <c r="C18">
-        <v>0.1971320124474293</v>
+        <v>0.3381652873100847</v>
       </c>
       <c r="D18">
-        <v>0.1844405752634757</v>
+        <v>0.3163940719280368</v>
       </c>
       <c r="E18">
-        <v>0.1402747047825013</v>
+        <v>0.2406308100657269</v>
       </c>
       <c r="F18">
-        <v>0.1281090054676023</v>
+        <v>0.2197614588473498</v>
       </c>
       <c r="G18">
-        <v>0.6680486424424494</v>
+        <v>1.145987697806861</v>
       </c>
       <c r="I18">
-        <v>1.659358184301861</v>
+        <v>2.846505395943352</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -910,22 +910,22 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>0.2700257003972442</v>
+        <v>0.4632089807346346</v>
       </c>
       <c r="C19">
-        <v>0.08448514819175539</v>
+        <v>0.1449279802757506</v>
       </c>
       <c r="D19">
-        <v>0.04611014381586892</v>
+        <v>0.07909851798200919</v>
       </c>
       <c r="F19">
-        <v>0.1281090054676023</v>
+        <v>0.2197614588473498</v>
       </c>
       <c r="G19">
-        <v>0.7194369995534069</v>
+        <v>1.234140597638158</v>
       </c>
       <c r="I19">
-        <v>1.248166997425878</v>
+        <v>2.141137535477903</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -933,25 +933,25 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>0.2394567531824619</v>
+        <v>0.4107702281986378</v>
       </c>
       <c r="C20">
-        <v>0.04224257409587769</v>
+        <v>0.0724639901378753</v>
       </c>
       <c r="D20">
-        <v>0.1844405752634757</v>
+        <v>0.3163940719280368</v>
       </c>
       <c r="E20">
-        <v>0.04675823492750041</v>
+        <v>0.08021027002190896</v>
       </c>
       <c r="F20">
-        <v>0.217785309294924</v>
+        <v>0.3735944800404946</v>
       </c>
       <c r="G20">
-        <v>0.9763787851081951</v>
+        <v>1.674905096794643</v>
       </c>
       <c r="I20">
-        <v>1.707062231872435</v>
+        <v>2.928338137121597</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -959,25 +959,25 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>0.4941979799723148</v>
+        <v>0.8477598326652742</v>
       </c>
       <c r="C21">
-        <v>0.04224257409587769</v>
+        <v>0.0724639901378753</v>
       </c>
       <c r="D21">
-        <v>0.2766608628952135</v>
+        <v>0.4745911078920552</v>
       </c>
       <c r="E21">
-        <v>0.1402747047825013</v>
+        <v>0.2406308100657269</v>
       </c>
       <c r="F21">
-        <v>0.2049744087481637</v>
+        <v>0.3516183341557596</v>
       </c>
       <c r="G21">
-        <v>2.209699355771179</v>
+        <v>3.79057469274577</v>
       </c>
       <c r="I21">
-        <v>3.36804988626525</v>
+        <v>5.777638767662461</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -985,25 +985,25 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>1.29918025662825</v>
+        <v>2.228646982779845</v>
       </c>
       <c r="C22">
-        <v>0.04224257409587769</v>
+        <v>0.0724639901378753</v>
       </c>
       <c r="D22">
-        <v>0.9222028763173782</v>
+        <v>1.581970359640183</v>
       </c>
       <c r="E22">
-        <v>0.4208241143475038</v>
+        <v>0.7218924301971807</v>
       </c>
       <c r="F22">
-        <v>0.3330834142157661</v>
+        <v>0.5713797930031094</v>
       </c>
       <c r="G22">
-        <v>4.162456925987568</v>
+        <v>7.140384886335061</v>
       </c>
       <c r="I22">
-        <v>7.179990161592343</v>
+        <v>12.31673844209325</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1011,28 +1011,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>2.985567177977077</v>
+        <v>5.121518164348978</v>
       </c>
       <c r="C23">
-        <v>0.08448514819175539</v>
+        <v>0.1449279802757506</v>
       </c>
       <c r="D23">
-        <v>0.7838724448697716</v>
+        <v>1.344674805694156</v>
       </c>
       <c r="E23">
-        <v>1.589779987535014</v>
+        <v>2.727149180744905</v>
       </c>
       <c r="F23">
-        <v>0.8967630382732162</v>
+        <v>1.538330211931448</v>
       </c>
       <c r="G23">
-        <v>3.802738426210865</v>
+        <v>6.523314587515978</v>
       </c>
       <c r="H23">
-        <v>0.1005478969951805</v>
+        <v>0.1724824296858815</v>
       </c>
       <c r="I23">
-        <v>10.24375412005288</v>
+        <v>17.5723973601971</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1040,28 +1040,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>3.861876998134172</v>
+        <v>6.6247624037142</v>
       </c>
       <c r="C24">
-        <v>0.09856600622371463</v>
+        <v>0.1690826436550424</v>
       </c>
       <c r="D24">
-        <v>0.7838724448697716</v>
+        <v>1.344674805694156</v>
       </c>
       <c r="E24">
-        <v>0.9819229334775083</v>
+        <v>1.684415670460089</v>
       </c>
       <c r="F24">
-        <v>0.8070867344458946</v>
+        <v>1.384497190738303</v>
       </c>
       <c r="G24">
-        <v>3.083301426657458</v>
+        <v>5.28917398987782</v>
       </c>
       <c r="H24">
-        <v>0.1005478969951805</v>
+        <v>0.1724824296858815</v>
       </c>
       <c r="I24">
-        <v>9.717174440803699</v>
+        <v>16.66908913382549</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1069,28 +1069,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>4.539488661395179</v>
+        <v>7.787154751595455</v>
       </c>
       <c r="C25">
-        <v>0.07040429015979614</v>
+        <v>0.1207733168964588</v>
       </c>
       <c r="D25">
-        <v>1.337194170660199</v>
+        <v>2.293857021478267</v>
       </c>
       <c r="E25">
-        <v>0.8884064636225077</v>
+        <v>1.52399513041627</v>
       </c>
       <c r="F25">
-        <v>0.6789777289782926</v>
+        <v>1.164735731890954</v>
       </c>
       <c r="G25">
-        <v>2.466641141325966</v>
+        <v>4.231339191902256</v>
       </c>
       <c r="H25">
-        <v>0.1508218454927707</v>
+        <v>0.2587236445288221</v>
       </c>
       <c r="I25">
-        <v>10.13193430163471</v>
+        <v>17.38057878870848</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1098,28 +1098,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>3.698842612988667</v>
+        <v>6.345089056855556</v>
       </c>
       <c r="C26">
-        <v>0.2252937285113476</v>
+        <v>0.3864746140686682</v>
       </c>
       <c r="D26">
-        <v>1.198863739212592</v>
+        <v>2.056561467532239</v>
       </c>
       <c r="E26">
-        <v>0.8884064636225077</v>
+        <v>1.52399513041627</v>
       </c>
       <c r="F26">
-        <v>1.024872043740819</v>
+        <v>1.758091670778798</v>
       </c>
       <c r="G26">
-        <v>3.699961711988951</v>
+        <v>6.347008787853384</v>
       </c>
       <c r="H26">
-        <v>0.1759588197415659</v>
+        <v>0.3018442519502926</v>
       </c>
       <c r="I26">
-        <v>10.91219911980645</v>
+        <v>18.71906497945521</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1127,28 +1127,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>2.674782881293456</v>
+        <v>4.588390846899682</v>
       </c>
       <c r="C27">
-        <v>0.1689702963835108</v>
+        <v>0.2898559605515012</v>
       </c>
       <c r="D27">
-        <v>1.106643451580854</v>
+        <v>1.898364431568221</v>
       </c>
       <c r="E27">
-        <v>0.3273076444925029</v>
+        <v>0.5614718901533629</v>
       </c>
       <c r="F27">
-        <v>1.242657353035743</v>
+        <v>2.131686150819293</v>
       </c>
       <c r="G27">
-        <v>3.083301426657458</v>
+        <v>5.28917398987782</v>
       </c>
       <c r="H27">
-        <v>0.1508218454927707</v>
+        <v>0.2587236445288221</v>
       </c>
       <c r="I27">
-        <v>8.754484898936296</v>
+        <v>15.0176669143987</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1156,28 +1156,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>2.888765511796933</v>
+        <v>4.955462114651655</v>
       </c>
       <c r="C28">
-        <v>0.09856600622371463</v>
+        <v>0.1690826436550424</v>
       </c>
       <c r="D28">
-        <v>1.244973883028461</v>
+        <v>2.135659985514248</v>
       </c>
       <c r="E28">
-        <v>0.4675823492750042</v>
+        <v>0.8021027002190895</v>
       </c>
       <c r="F28">
-        <v>1.024872043740819</v>
+        <v>1.758091670778798</v>
       </c>
       <c r="G28">
-        <v>2.672194569769798</v>
+        <v>4.583950791227444</v>
       </c>
       <c r="H28">
-        <v>0.02513697424879513</v>
+        <v>0.04312060742147036</v>
       </c>
       <c r="I28">
-        <v>8.422091338083524</v>
+        <v>14.44747051346775</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1185,28 +1185,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>3.189360159408961</v>
+        <v>5.471109847922285</v>
       </c>
       <c r="C29">
-        <v>0.1548894383515515</v>
+        <v>0.2657012971722094</v>
       </c>
       <c r="D29">
-        <v>0.9222028763173782</v>
+        <v>1.581970359640183</v>
       </c>
       <c r="E29">
-        <v>0.4208241143475038</v>
+        <v>0.7218924301971807</v>
       </c>
       <c r="F29">
-        <v>1.050493844834339</v>
+        <v>1.802043962548268</v>
       </c>
       <c r="G29">
-        <v>1.849980855994475</v>
+        <v>3.173504393926692</v>
       </c>
       <c r="H29">
-        <v>0.1005478969951805</v>
+        <v>0.1724824296858815</v>
       </c>
       <c r="I29">
-        <v>7.68829918624939</v>
+        <v>13.1887047210927</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1214,28 +1214,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>3.505239280628377</v>
+        <v>6.012976957460912</v>
       </c>
       <c r="C30">
-        <v>0.1689702963835108</v>
+        <v>0.2898559605515012</v>
       </c>
       <c r="D30">
-        <v>1.152753595396723</v>
+        <v>1.97746294955023</v>
       </c>
       <c r="E30">
-        <v>0.4208241143475038</v>
+        <v>0.7218924301971807</v>
       </c>
       <c r="F30">
-        <v>0.832708535539415</v>
+        <v>1.428449482507773</v>
       </c>
       <c r="G30">
-        <v>2.158310998660221</v>
+        <v>3.702421792914473</v>
       </c>
       <c r="H30">
-        <v>0.02513697424879513</v>
+        <v>0.04312060742147036</v>
       </c>
       <c r="I30">
-        <v>8.263943795204545</v>
+        <v>14.17618018060354</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1243,28 +1243,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>3.281067001053306</v>
+        <v>5.628426105530274</v>
       </c>
       <c r="C31">
-        <v>0.126727722287633</v>
+        <v>0.2173919704136258</v>
       </c>
       <c r="D31">
-        <v>1.152753595396723</v>
+        <v>1.97746294955023</v>
       </c>
       <c r="E31">
-        <v>0.3740658794200033</v>
+        <v>0.6416821601752717</v>
       </c>
       <c r="F31">
-        <v>1.255468253582503</v>
+        <v>2.153662296704028</v>
       </c>
       <c r="G31">
-        <v>2.055534284438305</v>
+        <v>3.526115993251881</v>
       </c>
       <c r="H31">
-        <v>0.1256848712439756</v>
+        <v>0.2156030371073518</v>
       </c>
       <c r="I31">
-        <v>8.371301607422449</v>
+        <v>14.36034451273266</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1272,28 +1272,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>3.714127086596059</v>
+        <v>6.371308433123556</v>
       </c>
       <c r="C32">
-        <v>0.1830511544154699</v>
+        <v>0.3140106239307929</v>
       </c>
       <c r="D32">
-        <v>0.8760927325015095</v>
+        <v>1.502871841658175</v>
       </c>
       <c r="E32">
-        <v>0.3740658794200033</v>
+        <v>0.6416821601752717</v>
       </c>
       <c r="F32">
-        <v>0.883952137726456</v>
+        <v>1.516354066046713</v>
       </c>
       <c r="G32">
-        <v>2.158310998660221</v>
+        <v>3.702421792914473</v>
       </c>
       <c r="H32">
-        <v>0.07541092274638536</v>
+        <v>0.1293618222644111</v>
       </c>
       <c r="I32">
-        <v>8.265010912066105</v>
+        <v>14.17801074011339</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1301,28 +1301,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>4.030006207815475</v>
+        <v>6.913175542662182</v>
       </c>
       <c r="C33">
-        <v>0.1126468642556738</v>
+        <v>0.1932373070343341</v>
       </c>
       <c r="D33">
-        <v>1.613855033555412</v>
+        <v>2.768448129370321</v>
       </c>
       <c r="E33">
-        <v>0.8884064636225077</v>
+        <v>1.52399513041627</v>
       </c>
       <c r="F33">
-        <v>1.076115645927859</v>
+        <v>1.845996254317738</v>
       </c>
       <c r="G33">
-        <v>1.284708927773941</v>
+        <v>2.203822495782425</v>
       </c>
       <c r="H33">
-        <v>0.1256848712439756</v>
+        <v>0.2156030371073518</v>
       </c>
       <c r="I33">
-        <v>9.131424014194845</v>
+        <v>15.66427789669062</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1330,28 +1330,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>4.819704010864018</v>
+        <v>8.267843316508756</v>
       </c>
       <c r="C34">
-        <v>0.1548894383515515</v>
+        <v>0.2657012971722094</v>
       </c>
       <c r="D34">
-        <v>1.475524602107805</v>
+        <v>2.531152575424294</v>
       </c>
       <c r="E34">
-        <v>1.028681168405009</v>
+        <v>1.764625940481997</v>
       </c>
       <c r="F34">
-        <v>0.7302213311653333</v>
+        <v>1.252640315429894</v>
       </c>
       <c r="G34">
-        <v>0.8222137137753223</v>
+        <v>1.410446397300752</v>
       </c>
       <c r="H34">
-        <v>0.02513697424879513</v>
+        <v>0.04312060742147036</v>
       </c>
       <c r="I34">
-        <v>9.056371238917835</v>
+        <v>15.53553044973937</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1359,25 +1359,25 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>5.074445237653867</v>
+        <v>8.704832920975393</v>
       </c>
       <c r="C35">
-        <v>0.09856600622371463</v>
+        <v>0.1690826436550424</v>
       </c>
       <c r="D35">
-        <v>1.060533307764985</v>
+        <v>1.819265913586211</v>
       </c>
       <c r="E35">
-        <v>1.262472343042511</v>
+        <v>2.165677290591542</v>
       </c>
       <c r="F35">
-        <v>0.3843270164028069</v>
+        <v>0.6592843765420494</v>
       </c>
       <c r="G35">
-        <v>1.130543856441068</v>
+        <v>1.939363796288534</v>
       </c>
       <c r="I35">
-        <v>9.010887767528953</v>
+        <v>15.45750694163877</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1385,25 +1385,25 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>4.738186818291267</v>
+        <v>8.128006643079434</v>
       </c>
       <c r="C36">
-        <v>0.07040429015979614</v>
+        <v>0.1207733168964588</v>
       </c>
       <c r="D36">
-        <v>1.106643451580854</v>
+        <v>1.898364431568221</v>
       </c>
       <c r="E36">
-        <v>0.9351646985500084</v>
+        <v>1.604205400438179</v>
       </c>
       <c r="F36">
-        <v>0.5380578229639297</v>
+        <v>0.9229981271588689</v>
       </c>
       <c r="G36">
-        <v>1.695815784661602</v>
+        <v>2.909045694432801</v>
       </c>
       <c r="I36">
-        <v>9.084272866207456</v>
+        <v>15.58339361357396</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1411,25 +1411,25 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>2.934618932619109</v>
+        <v>5.034120243455649</v>
       </c>
       <c r="C37">
-        <v>0.1548894383515515</v>
+        <v>0.2657012971722094</v>
       </c>
       <c r="D37">
-        <v>1.014423163949116</v>
+        <v>1.740167395604202</v>
       </c>
       <c r="E37">
-        <v>1.12219763826001</v>
+        <v>1.925046480525815</v>
       </c>
       <c r="F37">
-        <v>0.2562180109352046</v>
+        <v>0.4395229176946996</v>
       </c>
       <c r="G37">
-        <v>1.74720414177256</v>
+        <v>2.997198594264098</v>
       </c>
       <c r="I37">
-        <v>7.229551325887551</v>
+        <v>12.40175692871667</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1437,25 +1437,25 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>2.516843320683747</v>
+        <v>4.317457292130365</v>
       </c>
       <c r="C38">
-        <v>0.126727722287633</v>
+        <v>0.2173919704136258</v>
       </c>
       <c r="D38">
-        <v>0.8299825886856407</v>
+        <v>1.423773323676165</v>
       </c>
       <c r="E38">
-        <v>0.4675823492750042</v>
+        <v>0.8021027002190895</v>
       </c>
       <c r="F38">
-        <v>0.3458943147625262</v>
+        <v>0.5933559388878443</v>
       </c>
       <c r="G38">
-        <v>1.695815784661602</v>
+        <v>2.909045694432801</v>
       </c>
       <c r="I38">
-        <v>5.982846080356153</v>
+        <v>10.26312691975989</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1463,28 +1463,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>1.747524815778391</v>
+        <v>2.997748686641122</v>
       </c>
       <c r="C39">
-        <v>0.1971320124474293</v>
+        <v>0.3381652873100847</v>
       </c>
       <c r="D39">
-        <v>0.5072115819745582</v>
+        <v>0.870083697802101</v>
       </c>
       <c r="E39">
-        <v>0.6078570540575055</v>
+        <v>1.042733510284816</v>
       </c>
       <c r="F39">
-        <v>0.2049744087481637</v>
+        <v>0.3516183341557596</v>
       </c>
       <c r="G39">
-        <v>1.387485641995856</v>
+        <v>2.380128295445019</v>
       </c>
       <c r="H39">
-        <v>0.02513697424879513</v>
+        <v>0.04312060742147036</v>
       </c>
       <c r="I39">
-        <v>4.677322489250699</v>
+        <v>8.023598419060372</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1492,25 +1492,25 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>1.090292450660571</v>
+        <v>1.870315507117203</v>
       </c>
       <c r="C40">
-        <v>0.126727722287633</v>
+        <v>0.2173919704136258</v>
       </c>
       <c r="D40">
-        <v>0.1844405752634757</v>
+        <v>0.3163940719280368</v>
       </c>
       <c r="E40">
-        <v>0.3273076444925029</v>
+        <v>0.5614718901533629</v>
       </c>
       <c r="F40">
-        <v>0.1921635082014035</v>
+        <v>0.3296421882710247</v>
       </c>
       <c r="G40">
-        <v>0.6680486424424494</v>
+        <v>1.145987697806861</v>
       </c>
       <c r="I40">
-        <v>2.588980543348036</v>
+        <v>4.441203325690115</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1518,25 +1518,25 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>0.585904821616662</v>
+        <v>1.005076090273263</v>
       </c>
       <c r="C41">
-        <v>0.1971320124474293</v>
+        <v>0.3381652873100847</v>
       </c>
       <c r="D41">
-        <v>0.1844405752634757</v>
+        <v>0.3163940719280368</v>
       </c>
       <c r="E41">
-        <v>0.2337911746375021</v>
+        <v>0.4010513501095447</v>
       </c>
       <c r="F41">
-        <v>0.2049744087481637</v>
+        <v>0.3516183341557596</v>
       </c>
       <c r="G41">
-        <v>0.7708253566643645</v>
+        <v>1.322293497469455</v>
       </c>
       <c r="I41">
-        <v>2.177068349377597</v>
+        <v>3.734598631246143</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1544,25 +1544,25 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>0.3413532438984033</v>
+        <v>0.5855660699852926</v>
       </c>
       <c r="C42">
-        <v>0.1126468642556738</v>
+        <v>0.1932373070343341</v>
       </c>
       <c r="D42">
-        <v>0.1383304314476068</v>
+        <v>0.2372955539460276</v>
       </c>
       <c r="E42">
-        <v>0.1870329397100016</v>
+        <v>0.3208410800876358</v>
       </c>
       <c r="F42">
-        <v>0.1921635082014035</v>
+        <v>0.3296421882710247</v>
       </c>
       <c r="G42">
-        <v>0.5138835711095763</v>
+        <v>0.8815289983129702</v>
       </c>
       <c r="I42">
-        <v>1.485410558622665</v>
+        <v>2.548111197637285</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1570,22 +1570,22 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>0.25983605132565</v>
+        <v>0.4457293965559688</v>
       </c>
       <c r="C43">
-        <v>0.08448514819175539</v>
+        <v>0.1449279802757506</v>
       </c>
       <c r="D43">
-        <v>0.09222028763173784</v>
+        <v>0.1581970359640184</v>
       </c>
       <c r="F43">
-        <v>0.1281090054676023</v>
+        <v>0.2197614588473498</v>
       </c>
       <c r="G43">
-        <v>0.9249904279972376</v>
+        <v>1.586752196963346</v>
       </c>
       <c r="I43">
-        <v>1.489640920613983</v>
+        <v>2.555368068606434</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1593,25 +1593,25 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>0.1986981568960853</v>
+        <v>0.3408518914839763</v>
       </c>
       <c r="C44">
-        <v>0.04224257409587769</v>
+        <v>0.0724639901378753</v>
       </c>
       <c r="D44">
-        <v>0.09222028763173784</v>
+        <v>0.1581970359640184</v>
       </c>
       <c r="E44">
-        <v>0.04675823492750041</v>
+        <v>0.08021027002190896</v>
       </c>
       <c r="F44">
-        <v>0.2049744087481637</v>
+        <v>0.3516183341557596</v>
       </c>
       <c r="G44">
-        <v>1.181932213552025</v>
+        <v>2.027516696119831</v>
       </c>
       <c r="I44">
-        <v>1.76682587585139</v>
+        <v>3.03085821788337</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1619,25 +1619,25 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>0.6011892952240533</v>
+        <v>1.031295466541262</v>
       </c>
       <c r="C45">
-        <v>0.07040429015979614</v>
+        <v>0.1207733168964588</v>
       </c>
       <c r="D45">
-        <v>0.3688811505269514</v>
+        <v>0.6327881438560735</v>
       </c>
       <c r="E45">
-        <v>0.2337911746375021</v>
+        <v>0.4010513501095447</v>
       </c>
       <c r="F45">
-        <v>0.2434071103884444</v>
+        <v>0.4175467718099646</v>
       </c>
       <c r="G45">
-        <v>1.95275757021639</v>
+        <v>3.349810193589287</v>
       </c>
       <c r="I45">
-        <v>3.470430591153137</v>
+        <v>5.953265242802591</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1645,25 +1645,25 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>1.064818327981586</v>
+        <v>1.826616546670539</v>
       </c>
       <c r="D46">
-        <v>0.9222028763173782</v>
+        <v>1.581970359640183</v>
       </c>
       <c r="E46">
-        <v>0.561098819130005</v>
+        <v>0.9625232402629076</v>
       </c>
       <c r="F46">
-        <v>0.4227597180430877</v>
+        <v>0.7252128141962541</v>
       </c>
       <c r="G46">
-        <v>4.265233640209485</v>
+        <v>7.316690685997653</v>
       </c>
       <c r="H46">
-        <v>0.07541092274638536</v>
+        <v>0.1293618222644111</v>
       </c>
       <c r="I46">
-        <v>7.311524304427927</v>
+        <v>12.54237546903195</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1671,28 +1671,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>3.143506738586786</v>
+        <v>5.392451719118287</v>
       </c>
       <c r="C47">
-        <v>0.1126468642556738</v>
+        <v>0.1932373070343341</v>
       </c>
       <c r="D47">
-        <v>1.060533307764985</v>
+        <v>1.819265913586211</v>
       </c>
       <c r="E47">
-        <v>1.589779987535014</v>
+        <v>2.727149180744905</v>
       </c>
       <c r="F47">
-        <v>0.9095739388199766</v>
+        <v>1.560306357816183</v>
       </c>
       <c r="G47">
-        <v>4.3680103544314</v>
+        <v>7.492996485660248</v>
       </c>
       <c r="H47">
-        <v>0.05027394849759026</v>
+        <v>0.08624121484294073</v>
       </c>
       <c r="I47">
-        <v>11.23432513989142</v>
+        <v>19.27164817880311</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1700,28 +1700,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>3.754885682882434</v>
+        <v>6.441226769838216</v>
       </c>
       <c r="C48">
-        <v>0.2112128704793884</v>
+        <v>0.3623199506893765</v>
       </c>
       <c r="D48">
-        <v>0.6916521572380339</v>
+        <v>1.186477769730138</v>
       </c>
       <c r="E48">
-        <v>1.028681168405009</v>
+        <v>1.764625940481997</v>
       </c>
       <c r="F48">
-        <v>0.832708535539415</v>
+        <v>1.428449482507773</v>
       </c>
       <c r="G48">
-        <v>3.237466497990332</v>
+        <v>5.553632689371712</v>
       </c>
       <c r="H48">
-        <v>0.1256848712439756</v>
+        <v>0.2156030371073518</v>
       </c>
       <c r="I48">
-        <v>9.882291783778587</v>
+        <v>16.95233563972657</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1729,28 +1729,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>4.773850590041846</v>
+        <v>8.189185187704766</v>
       </c>
       <c r="C49">
-        <v>0.05632343212783691</v>
+        <v>0.09661865351716704</v>
       </c>
       <c r="D49">
-        <v>1.29108402684433</v>
+        <v>2.214758503496257</v>
       </c>
       <c r="E49">
-        <v>0.9351646985500084</v>
+        <v>1.604205400438179</v>
       </c>
       <c r="F49">
-        <v>0.7558431322588537</v>
+        <v>1.296592607199364</v>
       </c>
       <c r="G49">
-        <v>2.929136355324585</v>
+        <v>5.02471529038393</v>
       </c>
       <c r="H49">
-        <v>0.02513697424879513</v>
+        <v>0.04312060742147036</v>
       </c>
       <c r="I49">
-        <v>10.76653920939625</v>
+        <v>18.46919625016113</v>
       </c>
     </row>
   </sheetData>
